--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,229 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>630600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>681000</v>
+      </c>
+      <c r="F8" s="3">
         <v>648300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>652500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>613600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>641600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>609700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>609900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>587200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>595100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>534700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>528600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>487900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>513900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>282700</v>
+      </c>
+      <c r="F9" s="3">
         <v>272600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>279600</v>
       </c>
-      <c r="F9" s="3">
-        <v>268800</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>289600</v>
+      </c>
+      <c r="I9" s="3">
         <v>275800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>267100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>265100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>256000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>264400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>239500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>238300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>232300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>240900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>333600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>398300</v>
+      </c>
+      <c r="F10" s="3">
         <v>375700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>372900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
+        <v>324000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>365800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>342600</v>
+      </c>
+      <c r="K10" s="3">
         <v>344800</v>
       </c>
-      <c r="G10" s="3">
-        <v>365800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>342600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>344800</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>331200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>330700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>295200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>290300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>255600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>273000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,52 +904,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F12" s="3">
         <v>28000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>27600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>27200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>27800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>26400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>26000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>26000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>25500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>21200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>20300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>17800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>15700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -967,52 +1000,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>17400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>19200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>55400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>27400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>46400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,8 +1100,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1121,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>473600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>562800</v>
+      </c>
+      <c r="F17" s="3">
         <v>530700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>545000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>538300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>522300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>527600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>576400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>504200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>424300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>418400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>432600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>446900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>118200</v>
+      </c>
+      <c r="F18" s="3">
         <v>117600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>107500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>75300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>119300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>82100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>33500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>86800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>90900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>110400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>110200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>55300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>67000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1176,34 +1241,36 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
       </c>
       <c r="K20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>300</v>
@@ -1212,7 +1279,7 @@
         <v>200</v>
       </c>
       <c r="N20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
@@ -1220,184 +1287,214 @@
       <c r="P20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>213400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>172700</v>
+      </c>
+      <c r="F21" s="3">
         <v>170800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>161800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>129000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>172900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>134400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>85600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>139800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>140000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>147500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>146800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>88400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>97300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F22" s="3">
         <v>19500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>20800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>22700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>23300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>27200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>26600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>25900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>23700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>21300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>19900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>17700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>16400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>101300</v>
+      </c>
+      <c r="F23" s="3">
         <v>98500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>87200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>52900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>96200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>55300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>61200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>67400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>89400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>90500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>37700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>50800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-130400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>8700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>12100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-10100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1440,96 +1537,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>107800</v>
+      </c>
+      <c r="F26" s="3">
         <v>228900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>83300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>41900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>87500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>56500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>54900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>65100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>79400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>78400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>40300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>60900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>107800</v>
+      </c>
+      <c r="F27" s="3">
         <v>228900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>83300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>41900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>87500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>56500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>54900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>65100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>79400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>78400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>40300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>60900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1572,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1581,43 +1702,49 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>3100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>1300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-107700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-2400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1704,34 +1837,40 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
       </c>
       <c r="K32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-300</v>
@@ -1740,7 +1879,7 @@
         <v>-200</v>
       </c>
       <c r="N32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
@@ -1748,52 +1887,64 @@
       <c r="P32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>108300</v>
+      </c>
+      <c r="F33" s="3">
         <v>228900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>83400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>40900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>90600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>56500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>56200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-42700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>77000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>78000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>40200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>61100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1836,101 +1987,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>108300</v>
+      </c>
+      <c r="F35" s="3">
         <v>228900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>83400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>40900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>90600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>56500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>56200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-42700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>77000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>78000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>40200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>61100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1947,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1965,52 +2136,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>406500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>301100</v>
+      </c>
+      <c r="F41" s="3">
         <v>257500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>303900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>271200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>357200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>356300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>346300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>378900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>333600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1017600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>676200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>689100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>543800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2053,184 +2232,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>441700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>418700</v>
+      </c>
+      <c r="F43" s="3">
         <v>396700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>382100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>375800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>366300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>374300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>359100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>359100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>345900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>306500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>303700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>282900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>272000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>488900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>476600</v>
+      </c>
+      <c r="F44" s="3">
         <v>472600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>461300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>445600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>427800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>411100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>405400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>403700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>395700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>382400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>368500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>355300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>316200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F45" s="3">
         <v>110800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>97800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>90100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>84900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>99100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>74400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>63500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>53600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>60300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>59200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>67800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>51400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1446800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1306300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1237600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1245100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1182600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1236200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1240800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1185300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1205200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1128800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1766800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1407600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1395100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1183400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2264,105 +2473,123 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>534700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>543900</v>
+      </c>
+      <c r="F48" s="3">
         <v>544800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>533000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>522200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>432800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>421300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>411000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>389500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>383000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>374500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>369300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>355200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>302900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4629600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4401600</v>
+      </c>
+      <c r="F49" s="3">
         <v>4407000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4492500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4522300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4571600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4486200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4527100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4655000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4619300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3493100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3467000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3436000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2368400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,52 +2682,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F52" s="3">
         <v>67800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>43800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>41000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>37400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>52400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>52000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>50900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>50300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>46400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>46100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>46100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>36500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,52 +2782,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6701600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6309800</v>
+      </c>
+      <c r="F54" s="3">
         <v>6257200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6314400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6268100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6278000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6200700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6175300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6300600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6181500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5680700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5290000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5232400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3891200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,272 +2876,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>102900</v>
+      </c>
+      <c r="F57" s="3">
         <v>100600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>108100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>103500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>106700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>97600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>94800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>84700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>92000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>85400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>82000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>82000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>69400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>50000</v>
+        <v>53600</v>
       </c>
       <c r="E58" s="3">
         <v>50000</v>
       </c>
       <c r="F58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H58" s="3">
         <v>86600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>86600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>77300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>86900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>77500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>86600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>77300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>112000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>131100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>183100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>244300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>410100</v>
+      </c>
+      <c r="F59" s="3">
         <v>379700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>335800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>330800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>389100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>374400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>354700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>389600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>305200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>212000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>182000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>179200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>175200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>402300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>563100</v>
+      </c>
+      <c r="F60" s="3">
         <v>530400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>493900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>520900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>582500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>549300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>536400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>551800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>483900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>374600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>376100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>392400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>427600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2340900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1858900</v>
+      </c>
+      <c r="F61" s="3">
         <v>1949100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2081400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2072900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2072200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2075800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2145500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2154200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2162900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2172800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1887700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1957800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>850300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>885300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>908500</v>
+      </c>
+      <c r="F62" s="3">
         <v>924800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1074300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1104300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1083400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1068500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1059400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1034100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1104200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>660800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>667700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>663400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>474000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2969,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,52 +3322,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3628500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3330500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3404200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3649600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3698200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3738000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3693700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3741300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3740100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3751000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3208300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2931500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3013500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1751900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,52 +3592,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2939500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2824900</v>
+      </c>
+      <c r="F72" s="3">
         <v>2732400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2519200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2451500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2427600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2352600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2311700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2328700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2285900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2343900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2282200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2219500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2194600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,52 +3792,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3073000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2979300</v>
+      </c>
+      <c r="F76" s="3">
         <v>2853000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2664800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2569900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2540000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2507100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2434000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2560500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2430500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2472500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2358500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2218900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2139300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3892,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>108300</v>
+      </c>
+      <c r="F81" s="3">
         <v>228900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>83400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>40900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>90600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>56500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>56200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-42700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>77000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>78000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>40200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>61100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,52 +4021,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F83" s="3">
         <v>52700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>53900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>53400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>53500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>52000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>51900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>52600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>48900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>36900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>36500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>33000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>30100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,52 +4317,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>147700</v>
+      </c>
+      <c r="F89" s="3">
         <v>131700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>96300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>63800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>135100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>121100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>94500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>86600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>101300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>121800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>106100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>90700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>108300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,52 +4391,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-27700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-32600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-23500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-17700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-22300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-15700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-16900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-17100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-23900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-12900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-17200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,52 +4537,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-284400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-24100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-23500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-118100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-17800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-41000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-19400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-774500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-34400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-41900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-982100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-16800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,37 +4611,39 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="E96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="F96" s="3">
         <v>-15700</v>
       </c>
       <c r="G96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="I96" s="3">
         <v>-15600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-15600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-15500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-15300</v>
       </c>
       <c r="M96" s="3">
         <v>-15300</v>
@@ -4185,13 +4652,19 @@
         <v>-15300</v>
       </c>
       <c r="O96" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-15000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-15000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,136 +4807,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>405300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-108300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-142900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-43300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-124400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-6700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-97300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-69700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-32700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>237700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-103600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1021300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-20800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-9200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>3800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-9400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-16300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>10800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>16200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>26500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>15500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-26400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-46400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>32700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-85900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>10000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-32600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>45300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-684000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>341400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-12900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>145300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>44300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,229 +665,242 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E7" s="2">
         <v>43919</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E8" s="3">
         <v>630600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>681000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>648300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>652500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>613600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>641600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>609700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>609900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>587200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>595100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>534700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>528600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>487900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>513900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>288700</v>
+      </c>
+      <c r="E9" s="3">
         <v>297000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>282700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>272600</v>
       </c>
-      <c r="G9" s="3">
-        <v>279600</v>
-      </c>
       <c r="H9" s="3">
+        <v>300300</v>
+      </c>
+      <c r="I9" s="3">
         <v>289600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>275800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>267100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>265100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>256000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>264400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>239500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>238300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>232300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>240900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>278300</v>
+      </c>
+      <c r="E10" s="3">
         <v>333600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>398300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>375700</v>
       </c>
-      <c r="G10" s="3">
-        <v>372900</v>
-      </c>
       <c r="H10" s="3">
+        <v>352200</v>
+      </c>
+      <c r="I10" s="3">
         <v>324000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>365800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>342600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>344800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>331200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>330700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>295200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>290300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>255600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>273000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,58 +919,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E12" s="3">
         <v>27400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>26000</v>
       </c>
       <c r="L12" s="3">
         <v>26000</v>
       </c>
       <c r="M12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="N12" s="3">
         <v>25500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,58 +1023,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="3">
         <v>47800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>19200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>46400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,108 +1149,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>528200</v>
+      </c>
+      <c r="E17" s="3">
         <v>473600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>562800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>530700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>545000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>538300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>522300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>527600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>576400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>504200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>424300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>418400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>432600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>446900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E18" s="3">
         <v>157000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>118200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>117600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>107500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>75300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>119300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>82100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>86800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>110400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>110200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>55300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>67000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,46 +1276,47 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>500</v>
       </c>
       <c r="G20" s="3">
         <v>500</v>
       </c>
       <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
@@ -1293,208 +1327,223 @@
       <c r="R20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E21" s="3">
         <v>213400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>172700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>170800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>161800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>129000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>172900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>134400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>85600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>139800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>140000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>147500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>146800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>88400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>97300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E22" s="3">
         <v>15400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>20800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>22700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>27200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E23" s="3">
         <v>142200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>101300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>98500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>87200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>96200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>55300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>67400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>89400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>90500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E24" s="3">
         <v>11100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-130400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-10100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,108 +1592,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E26" s="3">
         <v>131200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>107800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>228900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>83300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>41900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>87500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>56500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>54900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>65100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>79400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>78400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E27" s="3">
         <v>131200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>107800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>228900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>83300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>41900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>87500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>56500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>54900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>65100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>78400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1702,49 +1763,52 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>500</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>3100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-107700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1843,46 +1910,49 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-500</v>
       </c>
       <c r="G32" s="3">
         <v>-500</v>
       </c>
       <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
@@ -1893,58 +1963,64 @@
       <c r="R32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E33" s="3">
         <v>131200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>108300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>228900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>83400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>40900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>90600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>56500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>56200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-42700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>77000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>78000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1993,113 +2069,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E35" s="3">
         <v>131200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>108300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>228900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>83400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>40900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>90600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>56500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>56200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-42700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>77000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>78000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E38" s="2">
         <v>43919</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2138,58 +2224,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>553500</v>
+      </c>
+      <c r="E41" s="3">
         <v>406500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>301100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>257500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>303900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>271200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>357200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>356300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>346300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>378900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>333600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1017600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>676200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>689100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>543800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2238,208 +2328,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>374900</v>
+      </c>
+      <c r="E43" s="3">
         <v>441700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>418700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>396700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>382100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>375800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>366300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>374300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>359100</v>
       </c>
       <c r="L43" s="3">
         <v>359100</v>
       </c>
       <c r="M43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="N43" s="3">
         <v>345900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>306500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>303700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>282900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>272000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>514800</v>
+      </c>
+      <c r="E44" s="3">
         <v>488900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>476600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>472600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>461300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>445600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>427800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>411100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>405400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>403700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>395700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>382400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>368500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>355300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>316200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E45" s="3">
         <v>109700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>110000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>110800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>97800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>90100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>84900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>99100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>74400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>63500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>53600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>60300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>59200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>67800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1544600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1446800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1306300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1237600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1245100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1182600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1236200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1240800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1185300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1205200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1128800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1766800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1407600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1395100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1183400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2479,117 +2584,126 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>40</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>534400</v>
+      </c>
+      <c r="E48" s="3">
         <v>534700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>543900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>544800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>533000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>522200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>432800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>421300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>411000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>389500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>383000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>374500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>369300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>355200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>302900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4604400</v>
+      </c>
+      <c r="E49" s="3">
         <v>4629600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4401600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4407000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4492500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4522300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4571600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4486200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4527100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4655000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4619300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3493100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3467000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3436000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2368400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,58 +2805,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E52" s="3">
         <v>90400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>58000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>67800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>41000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>37400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>52400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>50300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>46400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>46100</v>
       </c>
       <c r="P52" s="3">
         <v>46100</v>
       </c>
       <c r="Q52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="R52" s="3">
         <v>36500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,58 +2911,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6765100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6701600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6309800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6257200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6314400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6268100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6278000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6200700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6175300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6300600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6181500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5680700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5290000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5232400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3891200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,66 +3008,70 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E57" s="3">
         <v>104300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>102900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>108100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>103500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>106700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>97600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>94800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>84700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>92000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>85400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>82000</v>
       </c>
       <c r="P57" s="3">
         <v>82000</v>
       </c>
       <c r="Q57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="R57" s="3">
         <v>69400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E58" s="3">
         <v>53600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>50000</v>
       </c>
       <c r="F58" s="3">
         <v>50000</v>
@@ -2946,240 +3080,255 @@
         <v>50000</v>
       </c>
       <c r="H58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="I58" s="3">
         <v>86600</v>
       </c>
       <c r="J58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K58" s="3">
         <v>77300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>86900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>77500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>86600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>77300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>112000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>131100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>183100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>266500</v>
+      </c>
+      <c r="E59" s="3">
         <v>244300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>410100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>379700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>335800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>330800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>389100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>374400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>354700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>389600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>305200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>212000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>182000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>179200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>175200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>456600</v>
+      </c>
+      <c r="E60" s="3">
         <v>402300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>563100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>530400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>493900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>520900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>582500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>549300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>536400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>551800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>483900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>374600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>376100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>392400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>427600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2328800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2340900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1858900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1949100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2081400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2072900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2072200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2075800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2145500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2154200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2162900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2172800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1887700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1957800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>850300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>882300</v>
+      </c>
+      <c r="E62" s="3">
         <v>885300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>908500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>924800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1074300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1104300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1083400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1068500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1059400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1034100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1104200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>660800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>667700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>663400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>474000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,58 +3483,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3667700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3628500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3330500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3404200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3649600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3698200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3738000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3693700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3741300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3740100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3751000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3208300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2931500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3013500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1751900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,58 +3769,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2935200</v>
+      </c>
+      <c r="E72" s="3">
         <v>2939500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2824900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2732400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2519200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2451500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2427600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2352600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2311700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2328700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2285900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2343900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2282200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2219500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2194600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,58 +3981,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3097400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3073000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2979300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2853000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2664800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2569900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2540000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2507100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2434000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2560500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2430500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2472500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2358500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2218900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2139300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,113 +4087,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="E80" s="2">
         <v>43919</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E81" s="3">
         <v>131200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>108300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>228900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>83400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>40900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>90600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>56500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>56200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-42700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>77000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>78000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,58 +4221,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E83" s="3">
         <v>55800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>52700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>53900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>52000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>51900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>48900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,58 +4537,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>147700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>131700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>96300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>63800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>135100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>121100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>94500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>86600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>101300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>121800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>106100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>90700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>108300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,58 +4613,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,58 +4770,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-284400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-118100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-774500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-34400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-982100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,7 +4859,7 @@
         <v>-15800</v>
       </c>
       <c r="F96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="G96" s="3">
         <v>-15700</v>
@@ -4634,19 +4868,19 @@
         <v>-15700</v>
       </c>
       <c r="I96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="J96" s="3">
         <v>-15600</v>
       </c>
       <c r="K96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="L96" s="3">
         <v>-15500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-15300</v>
       </c>
       <c r="N96" s="3">
         <v>-15300</v>
@@ -4658,13 +4892,16 @@
         <v>-15300</v>
       </c>
       <c r="Q96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="R96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,154 +5056,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E100" s="3">
         <v>405300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-108300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-142900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-43300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-124400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-97300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-69700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>237700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-103600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1021300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-20800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>16200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>26500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>15500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-26400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E102" s="3">
         <v>105400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>43500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-46400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-85900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-32600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-684000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>341400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>145300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>44300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,242 +665,255 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E7" s="2">
         <v>44010</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43919</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43737</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43282</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43191</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>628300</v>
+      </c>
+      <c r="E8" s="3">
         <v>567000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>630600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>681000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>648300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>652500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>613600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>641600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>609700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>609900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>587200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>595100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>534700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>528600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>487900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>513900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E9" s="3">
         <v>288700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>297000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>282700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>272600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>289600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>275800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>267100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>265100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>256000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>264400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>239500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>238300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>232300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>240900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>329300</v>
+      </c>
+      <c r="E10" s="3">
         <v>278300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>333600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>398300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>375700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>352200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>324000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>365800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>342600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>344800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>331200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>330700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>295200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>290300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>255600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>273000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,61 +933,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E12" s="3">
         <v>29400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>26000</v>
       </c>
       <c r="M12" s="3">
         <v>26000</v>
       </c>
       <c r="N12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="O12" s="3">
         <v>25500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>17800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,61 +1043,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>47800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>27400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>46400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,114 +1176,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>496200</v>
+      </c>
+      <c r="E17" s="3">
         <v>528200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>473600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>562800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>530700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>545000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>538300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>522300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>527600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>576400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>504200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>424300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>418400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>432600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>446900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E18" s="3">
         <v>38800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>157000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>118200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>117600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>107500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>75300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>119300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>82100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>86800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>110400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>110200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>55300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>67000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1277,8 +1310,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1286,40 +1320,40 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>500</v>
       </c>
       <c r="H20" s="3">
         <v>500</v>
       </c>
       <c r="I20" s="3">
+        <v>500</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
@@ -1330,220 +1364,235 @@
       <c r="S20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>189200</v>
+      </c>
+      <c r="E21" s="3">
         <v>96300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>213400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>172700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>170800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>161800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>129000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>172900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>134400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>85600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>139800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>140000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>147500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>146800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>88400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>97300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E22" s="3">
         <v>15700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>20800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E23" s="3">
         <v>23300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>142200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>101300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>98500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>87200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>52900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>96200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>55300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>61200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>67400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>89400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>90500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>37700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>11800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-130400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-10100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1595,114 +1644,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E26" s="3">
         <v>11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>131200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>107800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>228900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>83300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>41900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>87500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>54900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>79400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>78400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E27" s="3">
         <v>11400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>131200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>107800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>228900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>83300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>41900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>87500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>54900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>79400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>78400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1766,49 +1827,52 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>500</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>3100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-107700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1913,8 +1980,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1922,40 +1992,40 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-500</v>
       </c>
       <c r="H32" s="3">
         <v>-500</v>
       </c>
       <c r="I32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
@@ -1966,61 +2036,67 @@
       <c r="S32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E33" s="3">
         <v>11500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>131200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>108300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>228900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>83400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>40900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>90600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>56200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-42700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>77000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>78000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2072,119 +2148,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E35" s="3">
         <v>11500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>131200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>108300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>228900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>83400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>40900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>90600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>56200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-42700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>77000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>78000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E38" s="2">
         <v>44010</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43919</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43737</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43282</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43191</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2225,61 +2311,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>347500</v>
+      </c>
+      <c r="E41" s="3">
         <v>553500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>406500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>301100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>257500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>303900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>271200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>357200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>356300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>346300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>378900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>333600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1017600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>676200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>689100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>543800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2331,220 +2421,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>390500</v>
+      </c>
+      <c r="E43" s="3">
         <v>374900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>441700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>418700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>396700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>382100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>375800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>366300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>374300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>359100</v>
       </c>
       <c r="M43" s="3">
         <v>359100</v>
       </c>
       <c r="N43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="O43" s="3">
         <v>345900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>306500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>303700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>282900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>272000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>526100</v>
+      </c>
+      <c r="E44" s="3">
         <v>514800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>488900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>476600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>472600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>461300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>445600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>427800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>411100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>405400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>403700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>395700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>382400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>368500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>355300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>316200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E45" s="3">
         <v>101400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>109700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>110000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>110800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>97800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>90100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>84900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>99100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>53600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>60300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>59200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>67800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>51400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1420600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1544600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1446800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1306300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1237600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1245100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1182600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1236200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1240800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1185300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1205200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1128800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1766800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1407600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1395100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1183400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2587,123 +2692,132 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>40</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>548200</v>
+      </c>
+      <c r="E48" s="3">
         <v>534400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>534700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>543900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>544800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>533000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>522200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>432800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>421300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>411000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>389500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>383000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>374500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>369300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>355200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>302900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4592800</v>
+      </c>
+      <c r="E49" s="3">
         <v>4604400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4629600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4401600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4407000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4492500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4522300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4571600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4486200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4527100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4655000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4619300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3493100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3467000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3436000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2368400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,61 +2925,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E52" s="3">
         <v>81700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>90400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>67800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>43800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>41000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>52000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>50900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>50300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>46400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>46100</v>
       </c>
       <c r="Q52" s="3">
         <v>46100</v>
       </c>
       <c r="R52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="S52" s="3">
         <v>36500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,61 +3037,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6613300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6765100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6701600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6309800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6257200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6314400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6268100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6278000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6200700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6175300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6300600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6181500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5680700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5290000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5232400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3891200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,72 +3139,76 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E57" s="3">
         <v>107100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>104300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>102900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>108100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>103500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>106700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>97600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>94800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>84700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>92000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>85400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>82000</v>
       </c>
       <c r="Q57" s="3">
         <v>82000</v>
       </c>
       <c r="R57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="S57" s="3">
         <v>69400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E58" s="3">
         <v>83000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>53600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>50000</v>
       </c>
       <c r="G58" s="3">
         <v>50000</v>
@@ -3083,252 +3217,267 @@
         <v>50000</v>
       </c>
       <c r="I58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="J58" s="3">
         <v>86600</v>
       </c>
       <c r="K58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="L58" s="3">
         <v>77300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>86900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>77500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>86600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>77300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>112000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>131100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>183100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>286600</v>
+      </c>
+      <c r="E59" s="3">
         <v>266500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>244300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>410100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>379700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>335800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>330800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>389100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>374400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>354700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>389600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>305200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>212000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>182000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>179200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>175200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>475200</v>
+      </c>
+      <c r="E60" s="3">
         <v>456600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>402300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>563100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>530400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>493900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>520900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>582500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>549300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>536400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>551800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>483900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>374600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>376100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>392400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>427600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2035800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2328800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2340900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1858900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1949100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2081400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2072900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2072200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2075800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2145500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2154200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2162900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2172800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1887700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1957800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>850300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>866000</v>
+      </c>
+      <c r="E62" s="3">
         <v>882300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>885300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>908500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>924800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1074300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1104300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1083400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1068500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1059400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1034100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1104200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>660800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>667700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>663400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>474000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,61 +3641,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3377100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3667700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3628500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3330500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3404200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3649600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3698200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3738000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3693700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3741300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3740100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3751000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3208300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2931500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3013500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1751900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,61 +3943,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3035900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2935200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2939500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2824900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2732400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2519200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2451500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2427600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2352600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2311700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2328700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2285900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2343900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2282200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2219500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2194600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,61 +4167,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3236200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3097400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3073000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2979300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2853000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2664800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2569900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2540000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2507100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2434000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2560500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2430500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2472500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2358500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2218900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2139300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,119 +4279,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44101</v>
+      </c>
+      <c r="E80" s="2">
         <v>44010</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43919</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43737</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43282</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43191</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E81" s="3">
         <v>11500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>131200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>108300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>228900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>83400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>40900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>90600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>56200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-42700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>77000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>78000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,61 +4420,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E83" s="3">
         <v>57300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>55800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>54100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>52700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>53500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>51900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>48900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,61 +4754,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E89" s="3">
         <v>145300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>147700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>131700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>96300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>63800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>135100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>121100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>94500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>86600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>101300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>121800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>106100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>90700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>108300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,61 +4834,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,61 +5000,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-284400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-118100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-774500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-982100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4862,7 +5096,7 @@
         <v>-15800</v>
       </c>
       <c r="G96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="H96" s="3">
         <v>-15700</v>
@@ -4871,19 +5105,19 @@
         <v>-15700</v>
       </c>
       <c r="J96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="K96" s="3">
         <v>-15600</v>
       </c>
       <c r="L96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-15500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-15300</v>
       </c>
       <c r="O96" s="3">
         <v>-15300</v>
@@ -4895,13 +5129,16 @@
         <v>-15300</v>
       </c>
       <c r="R96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="S96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,163 +5302,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-296200</v>
+      </c>
+      <c r="E100" s="3">
         <v>7100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>405300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-108300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-142900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-43300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-124400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-97300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-69700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-32700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>237700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-103600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1021300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-20800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E101" s="3">
         <v>4700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>16200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>26500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-26400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-206100</v>
+      </c>
+      <c r="E102" s="3">
         <v>147100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>105400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-46400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-85900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-32600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>45300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-684000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>341400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>145300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>44300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,255 +665,267 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44010</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43919</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>711200</v>
+      </c>
+      <c r="E8" s="3">
         <v>628300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>567000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>630600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>681000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>648300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>652500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>613600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>641600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>609700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>609900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>587200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>595100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>534700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>528600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>487900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>513900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>327600</v>
+      </c>
+      <c r="E9" s="3">
         <v>299000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>288700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>297000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>282700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>272600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>289600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>275800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>267100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>265100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>256000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>264400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>239500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>238300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>232300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>240900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>383600</v>
+      </c>
+      <c r="E10" s="3">
         <v>329300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>278300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>333600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>398300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>375700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>352200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>324000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>365800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>342600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>344800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>331200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>330700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>295200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>290300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>255600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>273000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,64 +946,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E12" s="3">
         <v>29200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>31100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>26000</v>
       </c>
       <c r="N12" s="3">
         <v>26000</v>
       </c>
       <c r="O12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="P12" s="3">
         <v>25500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,64 +1062,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E14" s="3">
         <v>21000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>47800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>55400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>27400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>46400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,120 +1202,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>616100</v>
+      </c>
+      <c r="E17" s="3">
         <v>496200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>528200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>473600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>562800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>530700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>545000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>538300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>522300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>527600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>576400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>504200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>424300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>418400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>432600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>446900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E18" s="3">
         <v>132100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>157000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>118200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>117600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>107500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>75300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>119300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>82100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>86800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>90900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>110400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>110200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>55300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>67000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1311,8 +1343,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1323,40 +1356,40 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>500</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
       </c>
       <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
@@ -1367,232 +1400,247 @@
       <c r="T20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E21" s="3">
         <v>189200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>96300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>213400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>172700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>170800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>161800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>129000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>172900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>134400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>85600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>139800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>140000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>147500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>146800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>88400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>97300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E22" s="3">
         <v>16700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>19500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>22700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>27200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E23" s="3">
         <v>115700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>142200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>101300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>98500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>87200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>52900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>96200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>67400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>89400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>90500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>37700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>50800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-130400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-10100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1647,120 +1695,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E26" s="3">
         <v>116600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>131200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>107800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>228900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>83300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>41900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>87500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>56500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>54900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>65100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>79400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>78400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E27" s="3">
         <v>116600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>131200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>107800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>228900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>83300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>41900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>87500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>65100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>79400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>78400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1815,13 +1872,16 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1830,49 +1890,52 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>500</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>3100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-107700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1927,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2049,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1995,40 +2064,40 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-500</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
       </c>
       <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
@@ -2039,64 +2108,70 @@
       <c r="T32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E33" s="3">
         <v>116600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>131200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>108300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>228900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>83400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>40900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>90600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>56500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-42700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>77000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>78000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>61100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2151,125 +2226,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E35" s="3">
         <v>116600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>131200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>108300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>228900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>83400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>40900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>90600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>56500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-42700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>77000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>78000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>61100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44101</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44010</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43919</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2290,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2312,64 +2397,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>375900</v>
+      </c>
+      <c r="E41" s="3">
         <v>347500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>553500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>406500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>301100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>257500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>303900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>271200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>357200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>356300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>346300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>378900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>333600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1017600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>676200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>689100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>543800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2424,232 +2513,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>395100</v>
+      </c>
+      <c r="E43" s="3">
         <v>390500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>374900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>441700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>418700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>396700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>382100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>375800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>366300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>374300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>359100</v>
       </c>
       <c r="N43" s="3">
         <v>359100</v>
       </c>
       <c r="O43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="P43" s="3">
         <v>345900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>306500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>303700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>282900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>272000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>513200</v>
+      </c>
+      <c r="E44" s="3">
         <v>526100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>514800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>488900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>476600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>472600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>461300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>445600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>427800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>411100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>405400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>403700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>395700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>382400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>368500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>355300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>316200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E45" s="3">
         <v>156500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>101400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>109700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>110000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>110800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>97800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>90100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>84900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>99100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>53600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>59200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>67800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>51400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1422400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1420600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1544600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1446800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1306300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1237600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1245100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1182600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1236200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1240800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1185300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1205200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1128800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1766800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1407600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1395100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1183400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2695,129 +2799,138 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>40</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>574500</v>
+      </c>
+      <c r="E48" s="3">
         <v>548200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>534400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>534700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>543900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>544800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>533000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>522200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>432800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>421300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>411000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>389500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>383000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>374500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>369300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>355200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>302900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5105700</v>
+      </c>
+      <c r="E49" s="3">
         <v>4592800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4604400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4629600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4401600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4407000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4492500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4522300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4571600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4486200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4527100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4655000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4619300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3493100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3467000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3436000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2368400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,64 +3044,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E52" s="3">
         <v>51800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>81700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>90400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>58000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>67800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>43800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>41000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>52400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>52000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>50900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>50300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>46400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>46100</v>
       </c>
       <c r="R52" s="3">
         <v>46100</v>
       </c>
       <c r="S52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="T52" s="3">
         <v>36500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,64 +3162,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7152600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6613300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6765100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6701600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6309800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6257200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6314400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6268100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6278000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6200700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6175300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6300600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6181500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5680700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5290000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5232400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3891200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,78 +3269,82 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E57" s="3">
         <v>96900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>107100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>104300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>102900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>108100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>103500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>106700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>97600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>94800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>84700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>92000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>85400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>82000</v>
       </c>
       <c r="R57" s="3">
         <v>82000</v>
       </c>
       <c r="S57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="T57" s="3">
         <v>69400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E58" s="3">
         <v>91800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>83000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>53600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>50000</v>
       </c>
       <c r="H58" s="3">
         <v>50000</v>
@@ -3220,264 +3353,279 @@
         <v>50000</v>
       </c>
       <c r="J58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="K58" s="3">
         <v>86600</v>
       </c>
       <c r="L58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="M58" s="3">
         <v>77300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>86900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>77500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>86600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>77300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>112000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>131100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>183100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E59" s="3">
         <v>286600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>266500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>244300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>410100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>379700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>335800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>330800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>389100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>374400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>354700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>389600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>305200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>212000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>182000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>179200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>175200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E60" s="3">
         <v>475200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>456600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>402300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>563100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>530400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>493900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>520900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>582500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>549300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>536400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>551800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>483900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>374600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>376100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>392400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>427600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2377900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2035800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2328800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2340900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1858900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1949100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2081400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2072900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2072200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2075800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2145500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2154200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2162900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2172800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1887700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1957800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>850300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>898200</v>
+      </c>
+      <c r="E62" s="3">
         <v>866000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>882300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>885300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>908500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>924800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1074300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1104300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1083400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1068500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1059400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1034100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1104200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>660800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>667700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>663400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>474000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3588,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,64 +3798,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3816100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3377100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3667700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3628500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3330500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3404200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3649600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3698200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3738000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3693700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3741300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3740100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3751000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3208300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2931500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3013500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1751900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,64 +4116,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3096200</v>
+      </c>
+      <c r="E72" s="3">
         <v>3035900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2935200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2939500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2824900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2732400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2519200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2451500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2427600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2352600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2311700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2328700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2285900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2343900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2282200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2219500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2194600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,64 +4352,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3336500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3236200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3097400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3073000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2979300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2853000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2664800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2569900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2540000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2507100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2434000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2560500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2430500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2472500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2358500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2218900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2139300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,125 +4470,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44101</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44010</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43919</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E81" s="3">
         <v>116600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>131200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>108300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>228900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>83400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>40900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>90600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>56500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-42700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>77000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>78000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>61100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,64 +4618,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E83" s="3">
         <v>56900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>57300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>55800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>54100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>52700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>53400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>53500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>51900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>48900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,64 +4970,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>195500</v>
+      </c>
+      <c r="E89" s="3">
         <v>107300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>145300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>147700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>131700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>96300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>63800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>135100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>121100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>94500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>86600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>101300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>121800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>106100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>90700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>108300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,64 +5054,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,64 +5229,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-519000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-284400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-118100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-774500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-982100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5099,7 +5332,7 @@
         <v>-15800</v>
       </c>
       <c r="H96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="I96" s="3">
         <v>-15700</v>
@@ -5108,19 +5341,19 @@
         <v>-15700</v>
       </c>
       <c r="K96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="L96" s="3">
         <v>-15600</v>
       </c>
       <c r="M96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="N96" s="3">
         <v>-15500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-15300</v>
       </c>
       <c r="P96" s="3">
         <v>-15300</v>
@@ -5132,13 +5365,16 @@
         <v>-15300</v>
       </c>
       <c r="S96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="T96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,172 +5547,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>338900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-296200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>405300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-108300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-142900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-43300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-124400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-97300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-69700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-32700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>237700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-103600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1021300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-20800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>16200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>26500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-26400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-206100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>147100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>105400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-46400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-85900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-32600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>45300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-684000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>341400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>145300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>44300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,280 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44010</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43919</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43737</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43282</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43191</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43009</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42918</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42827</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>633900</v>
+      </c>
+      <c r="E8" s="3">
         <v>711200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>628300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>567000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>630600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>681000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>648300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>652500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>613600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>641600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>609700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>609900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>587200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>595100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>534700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>528600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>487900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>513900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>289400</v>
+      </c>
+      <c r="E9" s="3">
         <v>327600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>299000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>288700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>297000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>282700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>272600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>289600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>275800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>267100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>265100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>256000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>264400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>239500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>238300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>232300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>240900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>344500</v>
+      </c>
+      <c r="E10" s="3">
         <v>383600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>329300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>278300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>333600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>398300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>375700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>352200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>324000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>365800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>342600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>344800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>331200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>330700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>295200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>290300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>255600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>273000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -947,67 +960,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E12" s="3">
         <v>33800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>31100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>26400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>26000</v>
       </c>
       <c r="O12" s="3">
         <v>26000</v>
       </c>
       <c r="P12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>25500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>15700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1065,67 +1082,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>47800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>55400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>27400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>46400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,126 +1229,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>530500</v>
+      </c>
+      <c r="E17" s="3">
         <v>616100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>496200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>528200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>473600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>562800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>530700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>545000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>538300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>522300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>527600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>576400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>504200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>424300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>418400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>432600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>446900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E18" s="3">
         <v>95100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>132100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>157000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>118200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>117600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>107500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>119300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>82100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>86800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>90900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>110400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>110200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>55300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>67000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1344,13 +1377,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1359,40 +1393,40 @@
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>500</v>
       </c>
       <c r="J20" s="3">
         <v>500</v>
       </c>
       <c r="K20" s="3">
+        <v>500</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
@@ -1403,244 +1437,259 @@
       <c r="U20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>163500</v>
+      </c>
+      <c r="E21" s="3">
         <v>152600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>189200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>96300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>213400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>172700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>170800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>161800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>129000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>172900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>134400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>85600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>139800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>140000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>147500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>146800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>88400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>97300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E22" s="3">
         <v>18700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>27200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E23" s="3">
         <v>76600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>115700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>142200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>101300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>98500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>87200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>96200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>55300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>61200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>67400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>89400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>90500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>37700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>50800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-130400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-10100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1698,126 +1747,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E26" s="3">
         <v>76600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>116600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>131200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>107800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>228900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>83300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>87500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>56500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>54900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>65100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>79400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>78400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>60900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E27" s="3">
         <v>76600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>116600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>131200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>107800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>228900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>83300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>87500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>56500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>65100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>79400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>78400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1875,17 +1933,20 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-500</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
@@ -1893,49 +1954,52 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>500</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>3100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-107700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2052,13 +2119,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -2067,40 +2137,40 @@
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-500</v>
       </c>
       <c r="J32" s="3">
         <v>-500</v>
       </c>
       <c r="K32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
@@ -2111,67 +2181,73 @@
       <c r="U32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E33" s="3">
         <v>76100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>116600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>131200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>108300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>228900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>83400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>90600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>56500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>56200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>77000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>78000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>61100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2229,131 +2305,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E35" s="3">
         <v>76100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>116600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>131200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>108300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>228900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>83400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>90600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>56500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>56200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>77000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>78000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>61100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44010</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43919</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43737</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43282</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43191</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43009</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42918</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42827</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2398,67 +2484,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>324600</v>
+      </c>
+      <c r="E41" s="3">
         <v>375900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>347500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>553500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>406500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>301100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>257500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>303900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>271200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>357200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>356300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>346300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>378900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>333600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1017600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>676200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>689100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>543800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2516,244 +2606,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>401100</v>
+      </c>
+      <c r="E43" s="3">
         <v>395100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>390500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>374900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>441700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>418700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>396700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>382100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>375800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>366300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>374300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>359100</v>
       </c>
       <c r="O43" s="3">
         <v>359100</v>
       </c>
       <c r="P43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>345900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>306500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>303700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>282900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>272000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>512300</v>
+      </c>
+      <c r="E44" s="3">
         <v>513200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>526100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>514800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>488900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>476600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>472600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>461300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>445600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>427800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>411100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>405400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>403700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>395700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>382400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>368500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>355300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>316200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E45" s="3">
         <v>138300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>156500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>101400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>109700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>110000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>110800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>97800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>90100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>84900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>99100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>74400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>63500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>53600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>59200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>67800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>51400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1378800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1422400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1420600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1544600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1446800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1306300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1237600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1245100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1182600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1236200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1240800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1185300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1205200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1128800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1766800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1407600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1395100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1183400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2802,135 +2907,144 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>40</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>562200</v>
+      </c>
+      <c r="E48" s="3">
         <v>574500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>548200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>534400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>534700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>543900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>544800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>533000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>522200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>432800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>421300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>411000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>389500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>383000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>374500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>369300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>355200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>302900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5036100</v>
+      </c>
+      <c r="E49" s="3">
         <v>5105700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4592800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4604400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4629600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4401600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4407000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4492500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4522300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4571600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4486200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4527100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4655000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4619300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3493100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3467000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3436000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2368400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,67 +3164,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50900</v>
+      </c>
+      <c r="E52" s="3">
         <v>49900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>51800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>81700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>90400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>58000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>67800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>43800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>52400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>52000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>50900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>50300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>46400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>46100</v>
       </c>
       <c r="S52" s="3">
         <v>46100</v>
       </c>
       <c r="T52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="U52" s="3">
         <v>36500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,67 +3288,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7028000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7152600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6613300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6765100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6701600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6309800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6257200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6314400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6268100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6278000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6200700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6175300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6300600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6181500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5680700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5290000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5232400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3891200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,84 +3400,88 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E57" s="3">
         <v>102500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>96900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>107100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>104300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>102900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>108100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>103500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>106700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>97600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>94800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>84700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>92000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>85400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>82000</v>
       </c>
       <c r="S57" s="3">
         <v>82000</v>
       </c>
       <c r="T57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="U57" s="3">
         <v>69400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E58" s="3">
         <v>100500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>91800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>83000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>53600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>50000</v>
       </c>
       <c r="I58" s="3">
         <v>50000</v>
@@ -3356,276 +3490,291 @@
         <v>50000</v>
       </c>
       <c r="K58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="L58" s="3">
         <v>86600</v>
       </c>
       <c r="M58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="N58" s="3">
         <v>77300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>86900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>77500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>86600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>77300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>112000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>131100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>183100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E59" s="3">
         <v>337000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>286600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>266500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>244300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>410100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>379700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>335800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>330800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>389100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>374400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>354700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>389600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>305200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>212000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>182000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>179200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>175200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>508100</v>
+      </c>
+      <c r="E60" s="3">
         <v>540000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>475200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>456600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>402300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>563100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>530400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>493900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>520900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>582500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>549300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>536400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>551800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>483900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>374600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>376100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>392400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>427600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2295400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2377900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2035800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2328800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2340900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1858900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1949100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2081400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2072900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2072200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2075800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2145500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2154200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2162900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2172800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1887700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1957800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>850300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>848700</v>
+      </c>
+      <c r="E62" s="3">
         <v>898200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>866000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>882300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>885300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>908500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>924800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1074300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1104300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1083400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1068500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1059400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1034100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1104200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>660800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>667700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>663400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>474000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,67 +3956,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3652200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3816100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3377100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3667700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3628500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3330500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3404200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3649600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3698200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3738000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3693700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3741300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3740100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3751000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3208300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2931500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3013500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1751900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,67 +4290,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3155200</v>
+      </c>
+      <c r="E72" s="3">
         <v>3096200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3035900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2935200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2939500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2824900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2732400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2519200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2451500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2427600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2352600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2311700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2328700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2285900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2343900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2282200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2219500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2194600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,67 +4538,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3375800</v>
+      </c>
+      <c r="E76" s="3">
         <v>3336500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3236200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3097400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3073000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2979300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2853000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2664800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2569900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2540000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2507100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2434000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2560500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2430500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2472500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2358500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2218900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2139300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,131 +4662,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44010</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43919</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43737</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43282</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43191</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43009</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42918</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42827</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E81" s="3">
         <v>76100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>116600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>131200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>108300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>228900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>83400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>90600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>56500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>56200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>77000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>78000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>61100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,67 +4817,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E83" s="3">
         <v>57300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>56900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>57300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>55800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>52700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>53900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>53400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>53500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>51900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>48900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>33000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,67 +5187,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E89" s="3">
         <v>195500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>107300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>145300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>147700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>131700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>96300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>63800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>135100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>121100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>94500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>86600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>101300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>121800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>106100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>90700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>108300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,67 +5275,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-32600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,67 +5459,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-519000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-284400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-118100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-774500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-982100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,13 +5547,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="E96" s="3">
         <v>-15800</v>
@@ -5335,7 +5569,7 @@
         <v>-15800</v>
       </c>
       <c r="I96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="J96" s="3">
         <v>-15700</v>
@@ -5344,19 +5578,19 @@
         <v>-15700</v>
       </c>
       <c r="L96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="M96" s="3">
         <v>-15600</v>
       </c>
       <c r="N96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-15500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-15300</v>
       </c>
       <c r="Q96" s="3">
         <v>-15300</v>
@@ -5368,13 +5602,16 @@
         <v>-15300</v>
       </c>
       <c r="T96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="U96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,181 +5793,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-131500</v>
+      </c>
+      <c r="E100" s="3">
         <v>338900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-296200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>405300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-108300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-142900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-43300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-124400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-97300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-69700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-32700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>237700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-103600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1021300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-20800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E101" s="3">
         <v>13000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>16200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>26500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-26400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E102" s="3">
         <v>28400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-206100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>147100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>105400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>43500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-46400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-85900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-32600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>45300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-684000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>341400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>145300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>44300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,280 +665,293 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E7" s="2">
         <v>44283</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44010</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43919</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43737</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43282</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43191</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43009</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42918</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42827</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>713500</v>
+      </c>
+      <c r="E8" s="3">
         <v>633900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>711200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>628300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>567000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>630600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>681000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>648300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>652500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>613600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>641600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>609700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>609900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>587200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>595100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>534700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>528600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>487900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>513900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>315900</v>
+      </c>
+      <c r="E9" s="3">
         <v>289400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>327600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>299000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>288700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>297000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>282700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>272600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>289600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>275800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>267100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>265100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>256000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>264400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>239500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>238300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>232300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>240900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>397600</v>
+      </c>
+      <c r="E10" s="3">
         <v>344500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>383600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>329300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>278300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>333600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>398300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>375700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>352200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>324000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>365800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>342600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>344800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>331200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>330700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>295200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>290300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>255600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>273000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,70 +974,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E12" s="3">
         <v>29900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>31100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>26000</v>
       </c>
       <c r="P12" s="3">
         <v>26000</v>
       </c>
       <c r="Q12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="R12" s="3">
         <v>25500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>17800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>15700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1085,70 +1102,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>47800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>55400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2900</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>27400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>46400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,132 +1256,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>597800</v>
+      </c>
+      <c r="E17" s="3">
         <v>530500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>616100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>496200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>528200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>473600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>562800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>530700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>545000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>538300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>522300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>527600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>576400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>504200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>424300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>418400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>432600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>446900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E18" s="3">
         <v>103400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>132100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>157000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>118200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>117600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>107500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>119300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>82100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>86800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>90900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>110400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>110200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>55300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>67000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1378,16 +1411,17 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1396,40 +1430,40 @@
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>500</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
       </c>
       <c r="L20" s="3">
+        <v>500</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
@@ -1440,256 +1474,271 @@
       <c r="V20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>176300</v>
+      </c>
+      <c r="E21" s="3">
         <v>163500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>152600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>189200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>96300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>213400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>172700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>170800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>161800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>129000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>172900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>134400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>85600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>139800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>140000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>147500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>146800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>88400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>97300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E22" s="3">
         <v>16800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>27200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>26600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E23" s="3">
         <v>87300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>76600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>115700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>142200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>101300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>98500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>87200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>96200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>61200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>67400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>89400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>90500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>37700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>50800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E24" s="3">
         <v>12400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-130400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-10100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1750,132 +1799,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E26" s="3">
         <v>74900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>76600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>116600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>131200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>107800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>228900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>87500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>54900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>65100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>79400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>78400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>40300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>60900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E27" s="3">
         <v>74900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>76600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>116600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>131200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>107800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>228900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>83300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>87500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>56500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>65100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>79400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>78400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>40300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>60900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1945,11 +2006,11 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-500</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -1957,49 +2018,52 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>3100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-107700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2122,16 +2189,19 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -2140,40 +2210,40 @@
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-500</v>
       </c>
       <c r="K32" s="3">
         <v>-500</v>
       </c>
       <c r="L32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
@@ -2184,70 +2254,76 @@
       <c r="V32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E33" s="3">
         <v>74900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>76100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>116600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>131200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>108300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>228900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>90600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>56200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-42700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>77000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>78000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>40200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>61100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2308,137 +2384,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E35" s="3">
         <v>74900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>76100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>116600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>131200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>108300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>228900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>90600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>56200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-42700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>77000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>78000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>40200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>61100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E38" s="2">
         <v>44283</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44010</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43919</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43737</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43282</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43191</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43009</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42918</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42827</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2485,70 +2571,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E41" s="3">
         <v>324600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>375900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>347500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>553500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>406500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>301100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>257500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>303900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>271200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>357200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>356300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>346300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>378900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>333600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1017600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>676200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>689100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>543800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2609,256 +2699,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>414200</v>
+      </c>
+      <c r="E43" s="3">
         <v>401100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>395100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>390500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>374900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>441700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>418700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>396700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>382100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>375800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>366300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>374300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>359100</v>
       </c>
       <c r="P43" s="3">
         <v>359100</v>
       </c>
       <c r="Q43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="R43" s="3">
         <v>345900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>306500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>303700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>282900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>272000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>490300</v>
+      </c>
+      <c r="E44" s="3">
         <v>512300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>513200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>526100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>514800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>488900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>476600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>472600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>461300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>445600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>427800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>411100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>405400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>403700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>395700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>382400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>368500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>355300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>316200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>170900</v>
+      </c>
+      <c r="E45" s="3">
         <v>140800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>138300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>156500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>101400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>109700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>110000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>110800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>97800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>90100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>84900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>99100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>74400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>63500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>53600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>60300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>59200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>67800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>51400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1437200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1378800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1422400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1420600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1544600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1446800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1306300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1237600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1245100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1182600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1236200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1240800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1185300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1205200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1128800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1766800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1407600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1395100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1183400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2910,141 +3015,150 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>40</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>564900</v>
+      </c>
+      <c r="E48" s="3">
         <v>562200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>574500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>548200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>534400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>534700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>543900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>544800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>533000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>522200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>432800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>421300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>411000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>389500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>383000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>374500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>369300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>355200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>302900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4918800</v>
+      </c>
+      <c r="E49" s="3">
         <v>5036100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5105700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4592800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4604400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4629600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4401600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4407000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4492500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4522300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4571600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4486200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4527100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4655000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4619300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3493100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3467000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3436000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2368400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,70 +3284,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E52" s="3">
         <v>50900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>49900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>51800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>81700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>90400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>58000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>67800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>52400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>52000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>50900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>50300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>46400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>46100</v>
       </c>
       <c r="T52" s="3">
         <v>46100</v>
       </c>
       <c r="U52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="V52" s="3">
         <v>36500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,70 +3414,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7066400</v>
+      </c>
+      <c r="E54" s="3">
         <v>7028000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7152600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6613300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6765100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6701600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6309800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6257200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6314400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6268100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6278000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6200700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6175300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6300600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6181500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5680700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5290000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5232400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3891200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,90 +3531,94 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E57" s="3">
         <v>101300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>102500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>96900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>107100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>104300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>102900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>108100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>103500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>106700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>97600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>94800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>84700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>92000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>85400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>82000</v>
       </c>
       <c r="T57" s="3">
         <v>82000</v>
       </c>
       <c r="U57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="V57" s="3">
         <v>69400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E58" s="3">
         <v>83800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>91800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>83000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>53600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>50000</v>
       </c>
       <c r="J58" s="3">
         <v>50000</v>
@@ -3493,288 +3627,303 @@
         <v>50000</v>
       </c>
       <c r="L58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="M58" s="3">
         <v>86600</v>
       </c>
       <c r="N58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="O58" s="3">
         <v>77300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>86900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>77500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>86600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>77300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>112000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>131100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>183100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>327800</v>
+      </c>
+      <c r="E59" s="3">
         <v>323000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>337000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>286600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>266500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>244300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>410100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>379700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>335800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>330800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>389100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>374400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>354700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>389600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>305200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>212000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>182000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>179200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>175200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>526800</v>
+      </c>
+      <c r="E60" s="3">
         <v>508100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>540000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>475200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>456600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>402300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>563100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>530400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>493900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>520900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>582500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>549300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>536400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>551800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>483900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>374600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>376100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>392400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>427600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2215700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2295400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2377900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2035800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2328800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2340900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1858900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1949100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2081400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2072900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2072200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2075800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2145500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2154200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2162900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2172800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1887700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1957800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>850300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>857800</v>
+      </c>
+      <c r="E62" s="3">
         <v>848700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>898200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>866000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>882300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>885300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>908500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>924800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1074300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1104300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1083400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1068500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1059400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1034100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1104200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>660800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>667700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>663400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>474000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,70 +4114,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3652200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3816100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3377100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3667700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3628500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3330500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3404200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3649600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3698200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3738000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3693700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3741300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3740100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3751000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3208300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2931500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3013500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1751900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,70 +4464,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3222500</v>
+      </c>
+      <c r="E72" s="3">
         <v>3155200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3096200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3035900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2935200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2939500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2824900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2732400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2519200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2451500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2427600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2352600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2311700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2328700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2285900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2343900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2282200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2219500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2194600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,70 +4724,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3466100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3375800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3336500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3236200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3097400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3073000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2979300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2853000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2664800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2569900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2540000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2507100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2434000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2560500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2430500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2472500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2358500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2218900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2139300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,137 +4854,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44374</v>
+      </c>
+      <c r="E80" s="2">
         <v>44283</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44010</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43919</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43737</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43282</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43191</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43009</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42918</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42827</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E81" s="3">
         <v>74900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>76100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>116600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>131200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>108300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>228900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>90600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>56200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-42700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>77000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>78000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>40200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>61100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,70 +5016,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E83" s="3">
         <v>59400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>57300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>56900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>57300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>55800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>54100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>52700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>53900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>53400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>53500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>51900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>48900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>33000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,70 +5404,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E89" s="3">
         <v>110600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>195500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>107300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>145300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>147700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>131700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>96300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>63800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>135100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>121100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>94500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>86600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>101300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>121800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>106100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>90700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>108300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,70 +5496,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,70 +5689,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-519000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-284400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-118100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-774500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-34400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-982100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5557,7 +5791,7 @@
         <v>-15900</v>
       </c>
       <c r="E96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="F96" s="3">
         <v>-15800</v>
@@ -5572,7 +5806,7 @@
         <v>-15800</v>
       </c>
       <c r="J96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="K96" s="3">
         <v>-15700</v>
@@ -5581,19 +5815,19 @@
         <v>-15700</v>
       </c>
       <c r="M96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="N96" s="3">
         <v>-15600</v>
       </c>
       <c r="O96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-15500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-15300</v>
       </c>
       <c r="R96" s="3">
         <v>-15300</v>
@@ -5605,13 +5839,16 @@
         <v>-15300</v>
       </c>
       <c r="U96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="V96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,190 +6039,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-109200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-131500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>338900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-296200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>405300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-108300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-142900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-124400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-97300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-69700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>237700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-103600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1021300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-20800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>13000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>16200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>26500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>15500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-26400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-51200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-206100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>147100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>105400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>43500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-46400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-85900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-32600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>45300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-684000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>341400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-12900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>145300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>44300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,306 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E7" s="2">
         <v>44374</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44283</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43737</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43282</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43191</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43009</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42918</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42827</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700300</v>
+      </c>
+      <c r="E8" s="3">
         <v>713500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>633900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>711200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>628300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>567000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>630600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>681000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>648300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>652500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>613600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>641600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>609700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>609900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>587200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>595100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>534700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>528600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>487900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>513900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>312500</v>
+      </c>
+      <c r="E9" s="3">
         <v>315900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>289400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>327600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>299000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>288700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>297000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>282700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>272600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>289600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>275800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>267100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>265100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>256000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>264400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>239500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>238300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>232300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>240900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>387800</v>
+      </c>
+      <c r="E10" s="3">
         <v>397600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>344500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>383600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>329300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>278300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>333600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>398300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>375700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>352200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>324000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>365800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>342600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>344800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>331200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>330700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>295200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>290300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>255600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>273000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,73 +988,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E12" s="3">
         <v>33300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>31100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>26000</v>
       </c>
       <c r="Q12" s="3">
         <v>26000</v>
       </c>
       <c r="R12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="S12" s="3">
         <v>25500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>20300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>17800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>15700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,73 +1122,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="E14" s="3">
         <v>24500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>47800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>55400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2900</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>27400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>46400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>459300</v>
+      </c>
+      <c r="E17" s="3">
         <v>597800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>530500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>616100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>496200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>528200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>473600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>562800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>530700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>545000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>538300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>522300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>527600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>576400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>504200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>424300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>418400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>432600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>446900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E18" s="3">
         <v>115700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>103400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>95100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>132100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>157000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>118200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>117600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>107500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>75300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>119300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>82100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>86800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>90900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>110400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>110200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>55300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>67000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1412,8 +1445,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1421,10 +1455,10 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1433,40 +1467,40 @@
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>500</v>
       </c>
       <c r="L20" s="3">
         <v>500</v>
       </c>
       <c r="M20" s="3">
+        <v>500</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
@@ -1477,268 +1511,283 @@
       <c r="W20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E21" s="3">
         <v>176300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>163500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>152600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>189200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>96300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>213400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>172700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>170800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>161800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>129000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>172900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>134400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>85600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>139800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>140000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>147500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>146800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>88400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>97300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="3">
         <v>16200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>27200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>26600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>25900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E23" s="3">
         <v>99700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>87300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>76600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>115700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>142200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>101300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>87200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>96200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>61200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>67400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>89400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>90500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>37700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>50800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E24" s="3">
         <v>16400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-130400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-10100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1802,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E26" s="3">
         <v>83300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>74900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>76600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>116600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>131200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>107800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>228900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>87500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>56500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>54900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>65100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>79400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>78400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>40300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>60900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E27" s="3">
         <v>83300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>74900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>76600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>116600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>131200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>107800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>228900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>83300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>87500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>56500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>54900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>65100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>79400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>78400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>40300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>60900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1997,23 +2055,26 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-500</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -2021,49 +2082,52 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>3100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-107700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2259,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2201,10 +2271,10 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -2213,40 +2283,40 @@
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-500</v>
       </c>
       <c r="L32" s="3">
         <v>-500</v>
       </c>
       <c r="M32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
@@ -2257,73 +2327,79 @@
       <c r="W32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>199200</v>
+      </c>
+      <c r="E33" s="3">
         <v>83200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>74900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>76100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>116600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>131200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>108300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>228900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>83400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>40900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>90600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>56500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>56200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-42700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>77000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>78000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>40200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>61100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2387,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>199200</v>
+      </c>
+      <c r="E35" s="3">
         <v>83200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>74900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>76100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>116600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>131200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>108300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>228900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>83400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>40900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>90600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>56500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>56200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-42700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>77000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>78000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>40200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>61100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E38" s="2">
         <v>44374</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44283</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43737</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43282</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43191</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43009</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42918</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42827</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2572,73 +2658,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>481200</v>
+      </c>
+      <c r="E41" s="3">
         <v>361800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>324600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>375900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>347500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>553500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>406500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>301100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>257500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>303900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>271200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>357200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>356300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>346300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>378900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>333600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1017600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>676200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>689100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>543800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2702,268 +2792,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>399700</v>
+      </c>
+      <c r="E43" s="3">
         <v>414200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>401100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>395100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>390500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>374900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>441700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>418700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>396700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>382100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>375800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>366300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>374300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>359100</v>
       </c>
       <c r="Q43" s="3">
         <v>359100</v>
       </c>
       <c r="R43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="S43" s="3">
         <v>345900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>306500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>303700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>282900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>272000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>484300</v>
+      </c>
+      <c r="E44" s="3">
         <v>490300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>512300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>513200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>526100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>514800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>488900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>476600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>472600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>461300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>445600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>427800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>411100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>405400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>403700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>395700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>382400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>368500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>355300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>316200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>176600</v>
+      </c>
+      <c r="E45" s="3">
         <v>170900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>140800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>138300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>156500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>101400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>109700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>110000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>110800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>97800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>84900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>99100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>74400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>63500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>53600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>60300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>59200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>67800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>51400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1541800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1437200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1378800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1422400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1420600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1544600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1446800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1306300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1237600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1245100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1182600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1236200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1240800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1185300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1205200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1128800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1766800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1407600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1395100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1183400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3018,147 +3123,156 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>40</v>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>576300</v>
+      </c>
+      <c r="E48" s="3">
         <v>564900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>562200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>574500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>548200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>534400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>534700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>543900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>544800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>533000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>522200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>432800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>421300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>411000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>389500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>383000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>374500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>369300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>355200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>302900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4860200</v>
+      </c>
+      <c r="E49" s="3">
         <v>4918800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5036100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5105700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4592800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4604400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4629600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4401600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4407000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4492500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4522300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4571600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4486200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4527100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4655000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4619300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3493100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3467000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3436000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2368400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E52" s="3">
         <v>145500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>50900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>49900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>51800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>81700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>90400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>58000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>37400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>52400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>52000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>50900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>50300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>46400</v>
-      </c>
-      <c r="T52" s="3">
-        <v>46100</v>
       </c>
       <c r="U52" s="3">
         <v>46100</v>
       </c>
       <c r="V52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="W52" s="3">
         <v>36500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7040000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7066400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7028000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7152600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6613300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6765100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6701600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6309800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6257200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6314400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6268100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6278000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6200700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6175300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6300600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6181500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5680700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5290000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5232400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3891200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,96 +3662,100 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E57" s="3">
         <v>106600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>101300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>102500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>96900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>107100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>104300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>102900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>108100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>103500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>106700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>97600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>94800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>84700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>92000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>85400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>82000</v>
       </c>
       <c r="U57" s="3">
         <v>82000</v>
       </c>
       <c r="V57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="W57" s="3">
         <v>69400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>101300</v>
+      </c>
+      <c r="E58" s="3">
         <v>92500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>83800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>91800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>83000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>53600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>50000</v>
       </c>
       <c r="K58" s="3">
         <v>50000</v>
@@ -3630,300 +3764,315 @@
         <v>50000</v>
       </c>
       <c r="M58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="N58" s="3">
         <v>86600</v>
       </c>
       <c r="O58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="P58" s="3">
         <v>77300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>86900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>77500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>86600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>77300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>112000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>131100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>183100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>356800</v>
+      </c>
+      <c r="E59" s="3">
         <v>327800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>323000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>337000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>286600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>266500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>244300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>410100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>379700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>335800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>330800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>389100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>374400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>354700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>389600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>305200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>212000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>182000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>179200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>175200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>562200</v>
+      </c>
+      <c r="E60" s="3">
         <v>526800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>508100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>540000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>475200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>456600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>402300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>563100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>530400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>493900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>520900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>582500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>549300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>536400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>551800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>483900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>374600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>376100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>392400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>427600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1948700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2215700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2295400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2377900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2035800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2328800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2340900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1858900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1949100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2081400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2072900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2072200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2075800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2145500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2154200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2162900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2172800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1887700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1957800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>850300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>871200</v>
+      </c>
+      <c r="E62" s="3">
         <v>857800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>848700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>898200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>866000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>882300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>885300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>908500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>924800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1074300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1104300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1083400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1068500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1059400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1034100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1104200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>660800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>667700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>663400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>474000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3382100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3652200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3816100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3377100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3667700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3628500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3330500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3404200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3649600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3698200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3738000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3693700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3741300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3740100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3751000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3208300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2931500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3013500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1751900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3405800</v>
+      </c>
+      <c r="E72" s="3">
         <v>3222500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3155200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3096200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3035900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2935200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2939500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2824900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2732400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2519200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2451500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2427600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2352600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2311700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2328700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2285900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2343900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2282200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2219500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2194600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3657900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3466100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3375800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3336500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3236200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3097400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3073000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2979300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2853000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2664800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2569900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2540000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2507100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2434000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2560500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2430500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2472500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2358500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2218900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2139300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44465</v>
+      </c>
+      <c r="E80" s="2">
         <v>44374</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44283</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43737</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43282</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43191</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43009</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42918</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42827</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>199200</v>
+      </c>
+      <c r="E81" s="3">
         <v>83200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>74900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>76100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>116600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>131200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>108300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>228900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>83400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>40900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>90600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>56500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>56200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-42700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>77000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>78000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>40200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>61100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E83" s="3">
         <v>60400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>59400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>57300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>56900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>57300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>55800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>54100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>53900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>53400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>53500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>48900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>33000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>30100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>185200</v>
+      </c>
+      <c r="E89" s="3">
         <v>154200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>110600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>195500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>107300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>145300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>147700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>131700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>96300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>63800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>135100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>121100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>94500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>86600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>101300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>121800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>106100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>90700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>108300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>199500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-519000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-284400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-118100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-774500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-34400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-982100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5794,7 +6028,7 @@
         <v>-15900</v>
       </c>
       <c r="F96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="G96" s="3">
         <v>-15800</v>
@@ -5809,7 +6043,7 @@
         <v>-15800</v>
       </c>
       <c r="K96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="L96" s="3">
         <v>-15700</v>
@@ -5818,19 +6052,19 @@
         <v>-15700</v>
       </c>
       <c r="N96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="O96" s="3">
         <v>-15600</v>
       </c>
       <c r="P96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-15300</v>
       </c>
       <c r="S96" s="3">
         <v>-15300</v>
@@ -5842,13 +6076,16 @@
         <v>-15300</v>
       </c>
       <c r="V96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="W96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,199 +6285,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-259700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-109200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-131500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>338900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-296200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>405300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-108300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-142900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-43300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-124400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-97300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-69700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-32700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>237700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-103600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1021300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-20800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E101" s="3">
         <v>3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>13000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>16200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>26500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>15500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-26400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E102" s="3">
         <v>37200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-51200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-206100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>147100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>105400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>43500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-46400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-85900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>45300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-684000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>341400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>145300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>44300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,318 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44374</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44283</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43737</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43282</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43191</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43009</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42918</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42827</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>761900</v>
+      </c>
+      <c r="E8" s="3">
         <v>700300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>713500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>633900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>711200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>628300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>567000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>630600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>681000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>648300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>652500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>613600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>641600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>609700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>609900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>587200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>595100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>534700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>528600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>487900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>513900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>342200</v>
+      </c>
+      <c r="E9" s="3">
         <v>312500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>315900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>289400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>327600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>299000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>288700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>297000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>282700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>272600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>289600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>275800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>267100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>265100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>256000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>264400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>239500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>238300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>232300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>240900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>419700</v>
+      </c>
+      <c r="E10" s="3">
         <v>387800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>397600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>344500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>383600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>329300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>278300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>333600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>398300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>375700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>352200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>324000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>365800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>342600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>344800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>331200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>330700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>295200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>290300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>255600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>273000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,76 +1001,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E12" s="3">
         <v>31800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>26400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>26000</v>
       </c>
       <c r="R12" s="3">
         <v>26000</v>
       </c>
       <c r="S12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="T12" s="3">
         <v>25500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>20300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>17800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>15700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,76 +1141,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-90200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>21000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>47800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>55400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2900</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>27400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>46400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1261,8 +1283,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1309,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>606800</v>
+      </c>
+      <c r="E17" s="3">
         <v>459300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>597800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>530500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>616100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>496200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>528200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>473600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>562800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>530700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>545000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>538300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>522300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>527600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>576400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>504200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>424300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>418400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>432600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>446900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E18" s="3">
         <v>241000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>115700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>103400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>95100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>132100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>157000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>118200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>117600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>107500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>75300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>119300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>82100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>86800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>90900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>110400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>110200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>55300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>67000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1446,8 +1478,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1458,10 +1491,10 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1470,40 +1503,40 @@
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>500</v>
       </c>
       <c r="M20" s="3">
         <v>500</v>
       </c>
       <c r="N20" s="3">
+        <v>500</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
@@ -1514,76 +1547,82 @@
       <c r="X20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E21" s="3">
         <v>300000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>176300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>163500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>152600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>189200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>96300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>213400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>172700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>170800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>161800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>129000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>172900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>134400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>85600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>139800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>140000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>147500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>146800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>88400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>97300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1591,203 +1630,212 @@
         <v>12000</v>
       </c>
       <c r="E22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F22" s="3">
         <v>16200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>27200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>25900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>19900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>16400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E23" s="3">
         <v>229200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>99700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>87300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>76600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>115700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>142200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>101300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>87200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>96200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>55300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>61200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>67400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>89400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>90500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>37700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>50800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E24" s="3">
         <v>29700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-130400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-2700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-10100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1854,144 +1902,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E26" s="3">
         <v>199500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>83300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>74900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>76600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>116600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>131200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>107800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>228900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>87500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>56500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>54900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>65100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>79400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>78400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>40300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>60900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E27" s="3">
         <v>199500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>83300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>74900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>76600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>116600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>131200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>107800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>228900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>83300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>87500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>56500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>54900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>65100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>79400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>78400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>40300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>60900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2058,26 +2115,29 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>600</v>
+      </c>
+      <c r="E29" s="3">
         <v>-300</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-500</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -2085,49 +2145,52 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>3100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-107700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-2400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2194,8 +2257,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2328,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2274,10 +2343,10 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -2286,40 +2355,40 @@
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-500</v>
       </c>
       <c r="M32" s="3">
         <v>-500</v>
       </c>
       <c r="N32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
@@ -2330,76 +2399,82 @@
       <c r="X32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E33" s="3">
         <v>199200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>83200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>74900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>76100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>116600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>131200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>108300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>228900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>40900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>90600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>56500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>56200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-42700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>77000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>78000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>40200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>61100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2466,149 +2541,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E35" s="3">
         <v>199200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>83200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>74900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>76100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>116600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>131200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>108300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>228900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>40900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>90600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>56500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>56200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-42700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>77000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>78000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>40200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>61100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44374</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44283</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43737</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43282</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43191</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43009</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42918</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42827</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2633,8 +2717,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2659,76 +2744,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>445100</v>
+      </c>
+      <c r="E41" s="3">
         <v>481200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>361800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>324600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>375900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>347500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>553500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>406500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>301100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>257500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>303900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>271200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>357200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>356300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>346300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>378900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>333600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1017600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>676200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>689100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>543800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2795,280 +2884,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>383600</v>
+      </c>
+      <c r="E43" s="3">
         <v>399700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>414200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>401100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>395100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>390500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>374900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>441700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>418700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>396700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>382100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>375800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>366300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>374300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>359100</v>
       </c>
       <c r="R43" s="3">
         <v>359100</v>
       </c>
       <c r="S43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="T43" s="3">
         <v>345900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>306500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>303700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>282900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>272000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>477600</v>
+      </c>
+      <c r="E44" s="3">
         <v>484300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>490300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>512300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>513200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>526100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>514800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>488900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>476600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>472600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>461300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>445600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>427800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>411100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>405400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>403700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>395700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>382400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>368500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>355300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>316200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E45" s="3">
         <v>176600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>170900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>140800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>138300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>156500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>101400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>109700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>110000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>110800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>97800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>84900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>99100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>74400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>53600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>60300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>59200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>67800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>51400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1429100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1541800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1437200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1378800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1422400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1420600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1544600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1446800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1306300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1237600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1245100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1182600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1236200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1240800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1185300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1205200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1128800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1766800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1407600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1395100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1183400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3126,153 +3230,162 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>40</v>
+      <c r="V47" s="3">
+        <v>0</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>573400</v>
+      </c>
+      <c r="E48" s="3">
         <v>576300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>564900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>562200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>574500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>548200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>534400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>534700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>543900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>544800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>533000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>522200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>432800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>421300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>411000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>389500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>383000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>374500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>369300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>355200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>302900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4793300</v>
+      </c>
+      <c r="E49" s="3">
         <v>4860200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4918800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5036100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5105700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4592800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4604400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4629600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4401600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4407000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4492500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4522300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4571600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4486200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4527100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4655000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4619300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3493100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3467000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3436000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2368400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3452,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,76 +3523,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E52" s="3">
         <v>61600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>145500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>49900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>51800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>81700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>90400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>58000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>37400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>52400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>52000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>50900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>50300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>46400</v>
-      </c>
-      <c r="U52" s="3">
-        <v>46100</v>
       </c>
       <c r="V52" s="3">
         <v>46100</v>
       </c>
       <c r="W52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="X52" s="3">
         <v>36500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3665,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6871700</v>
+      </c>
+      <c r="E54" s="3">
         <v>7040000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7066400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7028000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7152600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6613300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6765100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6701600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6309800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6257200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6314400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6268100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6278000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6200700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6175300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6300600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6181500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5680700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5290000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5232400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3891200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3765,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,102 +3792,106 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E57" s="3">
         <v>104100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>106600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>101300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>102500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>96900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>107100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>104300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>102900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>108100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>103500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>106700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>97600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>94800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>84700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>92000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>85400</v>
-      </c>
-      <c r="U57" s="3">
-        <v>82000</v>
       </c>
       <c r="V57" s="3">
         <v>82000</v>
       </c>
       <c r="W57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="X57" s="3">
         <v>69400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E58" s="3">
         <v>101300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>92500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>83800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>91800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>83000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>53600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>50000</v>
       </c>
       <c r="L58" s="3">
         <v>50000</v>
@@ -3767,312 +3900,327 @@
         <v>50000</v>
       </c>
       <c r="N58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="O58" s="3">
         <v>86600</v>
       </c>
       <c r="P58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>77300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>86900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>77500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>86600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>77300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>112000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>131100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>183100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>451900</v>
+      </c>
+      <c r="E59" s="3">
         <v>356800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>327800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>323000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>337000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>286600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>266500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>244300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>410100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>379700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>335800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>330800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>389100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>374400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>354700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>389600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>305200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>212000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>182000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>179200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>175200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>680100</v>
+      </c>
+      <c r="E60" s="3">
         <v>562200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>526800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>508100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>540000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>475200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>456600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>402300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>563100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>530400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>493900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>520900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>582500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>549300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>536400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>551800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>483900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>374600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>376100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>392400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>427600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1740100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1948700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2215700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2295400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2377900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2035800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2328800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2340900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1858900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1949100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2081400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2072900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2072200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2075800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2145500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2154200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2162900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2172800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1887700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1957800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>850300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>696800</v>
+      </c>
+      <c r="E62" s="3">
         <v>871200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>857800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>848700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>898200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>866000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>882300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>885300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>908500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>924800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1074300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1104300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1083400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1068500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1059400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1034100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1104200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>660800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>667700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>663400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>474000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4287,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4207,8 +4358,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4429,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3117000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3382100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3652200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3816100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3377100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3667700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3628500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3330500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3404200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3649600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3698200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3738000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3693700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3741300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3740100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3751000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3208300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2931500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3013500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1751900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4529,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4598,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4669,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4740,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4811,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3518000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3405800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3222500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3155200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3096200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3035900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2935200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2939500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2824900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2732400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2519200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2451500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2427600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2352600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2311700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2328700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2285900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2343900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2282200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2219500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2194600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4953,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5024,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5095,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3754700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3657900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3466100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3375800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3336500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3236200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3097400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3073000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2979300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2853000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2664800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2569900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2540000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2507100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2434000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2560500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2430500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2472500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2358500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2218900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2139300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5237,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44374</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44283</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43737</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43282</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43191</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43009</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42918</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42827</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E81" s="3">
         <v>199200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>83200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>74900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>76100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>116600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>131200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>108300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>228900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>40900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>90600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>56500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>56200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-42700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>77000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>78000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>40200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>61100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,76 +5413,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E83" s="3">
         <v>58800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>60400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>59400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>57300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>56900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>57300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>55800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>53900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>53400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>51900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>48900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>36500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>33000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>30100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5553,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5624,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5695,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5766,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5837,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>201500</v>
+      </c>
+      <c r="E89" s="3">
         <v>185200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>154200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>110600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>195500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>107300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>145300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>147700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>131700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>96300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>63800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>135100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>121100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>94500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>86600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>101300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>121800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>106100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>90700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>108300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5937,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6077,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6148,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E94" s="3">
         <v>199500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-519000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-284400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-118100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-774500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-34400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-41900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-982100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6248,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6031,7 +6264,7 @@
         <v>-15900</v>
       </c>
       <c r="G96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="H96" s="3">
         <v>-15800</v>
@@ -6046,7 +6279,7 @@
         <v>-15800</v>
       </c>
       <c r="L96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="M96" s="3">
         <v>-15700</v>
@@ -6055,19 +6288,19 @@
         <v>-15700</v>
       </c>
       <c r="O96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="P96" s="3">
         <v>-15600</v>
       </c>
       <c r="Q96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="R96" s="3">
         <v>-15500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-15300</v>
       </c>
       <c r="T96" s="3">
         <v>-15300</v>
@@ -6079,13 +6312,16 @@
         <v>-15300</v>
       </c>
       <c r="W96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="X96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6388,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6459,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,208 +6530,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-215400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-259700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-109200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-131500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>338900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-296200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>405300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-108300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-142900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-43300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-124400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-97300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-69700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-32700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>237700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-103600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1021300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-20800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>13000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-16300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>16200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>26500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>15500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-26400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E102" s="3">
         <v>119400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>37200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-51200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-206100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>147100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>105400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-46400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-85900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-32600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>45300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-684000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>341400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-12900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>145300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>44300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,318 +665,331 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44374</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44283</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43737</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43282</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43191</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43009</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42918</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42827</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>641700</v>
+      </c>
+      <c r="E8" s="3">
         <v>761900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>713500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>633900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>711200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>628300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>567000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>630600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>681000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>648300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>652500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>613600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>641600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>609700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>609900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>587200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>595100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>534700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>528600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>487900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>513900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>295500</v>
+      </c>
+      <c r="E9" s="3">
         <v>342200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>312500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>315900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>289400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>327600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>299000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>288700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>297000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>282700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>272600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>289600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>275800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>267100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>265100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>256000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>264400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>239500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>238300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>232300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>240900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>346200</v>
+      </c>
+      <c r="E10" s="3">
         <v>419700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>387800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>397600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>344500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>383600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>329300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>278300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>333600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>398300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>375700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>352200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>324000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>365800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>342600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>344800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>331200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>330700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>295200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>290300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>255600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>273000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,79 +1015,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E12" s="3">
         <v>35800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>33300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>26400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>26000</v>
       </c>
       <c r="S12" s="3">
         <v>26000</v>
       </c>
       <c r="T12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="U12" s="3">
         <v>25500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>20300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>17800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>15700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1144,79 +1161,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-90200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>47800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>19200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>55400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2900</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>27400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>46400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1310,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>538200</v>
+      </c>
+      <c r="E17" s="3">
         <v>606800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>459300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>597800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>530500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>616100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>496200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>528200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>473600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>562800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>530700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>545000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>538300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>522300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>527600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>576400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>504200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>424300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>418400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>432600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>446900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E18" s="3">
         <v>155100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>241000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>115700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>103400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>132100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>157000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>118200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>117600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>107500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>119300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>82100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>86800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>90900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>110400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>110200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>55300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>67000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1479,8 +1512,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1494,10 +1528,10 @@
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1506,40 +1540,40 @@
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>500</v>
       </c>
       <c r="N20" s="3">
         <v>500</v>
       </c>
       <c r="O20" s="3">
+        <v>500</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
@@ -1550,292 +1584,307 @@
       <c r="Y20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>161700</v>
+      </c>
+      <c r="E21" s="3">
         <v>214000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>176300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>163500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>152600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>189200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>96300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>213400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>172700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>170800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>161800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>129000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>172900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>134400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>85600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>139800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>140000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>147500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>146800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>88400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>97300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>12000</v>
+        <v>10400</v>
       </c>
       <c r="E22" s="3">
         <v>12000</v>
       </c>
       <c r="F22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G22" s="3">
         <v>16200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>16800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>27200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>26600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>25900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>21300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>19900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>17700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>16400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E23" s="3">
         <v>143300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>229200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>99700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>87300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>76600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>115700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>142200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>101300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>87200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>52900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>96200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>61200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>67400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>89400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>90500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>37700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>50800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>15800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-130400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-2700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1905,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E26" s="3">
         <v>127500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>199500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>83300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>74900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>116600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>131200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>107800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>228900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>83300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>87500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>54900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>65100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>79400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>78400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>40300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>60900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E27" s="3">
         <v>127500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>199500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>83300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>74900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>76600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>116600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>131200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>107800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>228900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>83300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>41900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>87500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>56500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>54900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>65100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>79400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>78400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>40300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>60900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2118,29 +2176,32 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="3">
         <v>600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-300</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-500</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -2148,49 +2209,52 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>3100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-107700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-2400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2260,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2398,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2346,10 +2416,10 @@
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -2358,40 +2428,40 @@
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-500</v>
       </c>
       <c r="N32" s="3">
         <v>-500</v>
       </c>
       <c r="O32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
@@ -2402,79 +2472,85 @@
       <c r="Y32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E33" s="3">
         <v>128100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>199200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>83200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>74900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>76100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>116600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>131200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>108300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>228900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>83400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>40900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>90600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>56500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>56200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-42700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>77000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>78000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>40200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>61100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2544,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E35" s="3">
         <v>128100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>199200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>83200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>74900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>76100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>116600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>131200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>108300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>228900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>83400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>40900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>90600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>56500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>56200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-42700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>77000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>78000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>40200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>61100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44374</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44283</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43737</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43282</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43191</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43009</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42918</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42827</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2718,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2745,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>466700</v>
+      </c>
+      <c r="E41" s="3">
         <v>445100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>481200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>361800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>324600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>375900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>347500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>553500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>406500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>301100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>257500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>303900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>271200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>357200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>356300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>346300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>378900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>333600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1017600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>676200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>689100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>543800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2887,292 +2977,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>407200</v>
+      </c>
+      <c r="E43" s="3">
         <v>383600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>399700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>414200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>401100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>395100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>390500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>374900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>441700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>418700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>396700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>382100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>375800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>366300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>374300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>359100</v>
       </c>
       <c r="S43" s="3">
         <v>359100</v>
       </c>
       <c r="T43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="U43" s="3">
         <v>345900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>306500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>303700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>282900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>272000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>491400</v>
+      </c>
+      <c r="E44" s="3">
         <v>477600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>484300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>490300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>512300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>513200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>526100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>514800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>488900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>476600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>472600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>461300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>445600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>427800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>411100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>405400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>403700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>395700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>382400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>368500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>355300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>316200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E45" s="3">
         <v>122800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>176600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>170900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>140800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>138300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>156500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>101400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>109700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>110000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>110800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>97800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>84900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>99100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>74400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>63500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>53600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>60300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>59200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>67800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>51400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1494200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1429100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1541800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1437200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1378800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1422400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1420600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1544600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1446800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1306300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1237600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1245100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1182600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1236200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1240800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1185300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1205200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1128800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1766800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1407600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1395100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1183400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3233,159 +3338,168 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>40</v>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>560400</v>
+      </c>
+      <c r="E48" s="3">
         <v>573400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>576300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>564900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>562200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>574500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>548200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>534400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>534700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>543900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>544800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>533000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>522200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>432800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>421300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>411000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>389500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>383000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>374500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>369300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>355200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>302900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4736300</v>
+      </c>
+      <c r="E49" s="3">
         <v>4793300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4860200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4918800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5036100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5105700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4592800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4604400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4629600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4401600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4407000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4492500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4522300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4571600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4486200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4527100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4655000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4619300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3493100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3467000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3436000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2368400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3455,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3526,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E52" s="3">
         <v>75900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>61600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>145500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>50900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>49900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>51800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>81700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>90400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>58000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>67800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>41000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>37400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>52400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>52000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>50900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>50300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>46400</v>
-      </c>
-      <c r="V52" s="3">
-        <v>46100</v>
       </c>
       <c r="W52" s="3">
         <v>46100</v>
       </c>
       <c r="X52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="Y52" s="3">
         <v>36500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3668,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6873300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6871700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7040000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7066400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7028000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7152600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6613300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6765100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6701600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6309800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6257200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6314400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6268100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6278000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6200700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6175300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6300600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6181500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5680700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5290000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5232400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3891200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3766,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3793,79 +3923,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E57" s="3">
         <v>118200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>104100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>106600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>101300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>102500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>96900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>107100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>104300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>102900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>108100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>103500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>106700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>97600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>94800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>84700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>92000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>85400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>82000</v>
       </c>
       <c r="W57" s="3">
         <v>82000</v>
       </c>
       <c r="X57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="Y57" s="3">
         <v>69400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3873,28 +4007,28 @@
         <v>110000</v>
       </c>
       <c r="E58" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F58" s="3">
         <v>101300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>92500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>83800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>91800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>83000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>50000</v>
       </c>
       <c r="M58" s="3">
         <v>50000</v>
@@ -3903,324 +4037,339 @@
         <v>50000</v>
       </c>
       <c r="O58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="P58" s="3">
         <v>86600</v>
       </c>
       <c r="Q58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="R58" s="3">
         <v>77300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>86900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>77500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>86600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>77300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>112000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>131100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>183100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>428700</v>
+      </c>
+      <c r="E59" s="3">
         <v>451900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>356800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>327800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>323000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>337000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>286600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>266500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>244300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>410100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>379700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>335800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>330800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>389100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>374400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>354700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>389600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>305200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>212000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>182000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>179200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>175200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>656200</v>
+      </c>
+      <c r="E60" s="3">
         <v>680100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>562200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>526800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>508100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>540000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>475200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>456600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>402300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>563100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>530400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>493900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>520900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>582500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>549300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>536400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>551800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>483900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>374600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>376100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>392400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>427600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1740800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1740100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1948700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2215700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2295400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2377900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2035800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2328800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2340900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1858900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1949100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2081400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2072900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2072200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2075800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2145500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2154200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2162900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2172800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1887700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1957800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>850300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>680800</v>
+      </c>
+      <c r="E62" s="3">
         <v>696800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>871200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>857800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>848700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>898200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>866000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>882300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>885300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>908500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>924800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1074300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1104300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1083400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1068500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1059400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1034100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1104200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>660800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>667700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>663400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>474000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4290,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4361,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4432,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3077800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3117000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3382100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3652200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3816100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3377100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3667700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3628500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3330500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3404200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3649600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3698200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3738000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3693700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3741300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3740100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3751000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3208300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2931500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3013500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1751900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4530,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4601,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4672,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4743,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4814,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3579100</v>
+      </c>
+      <c r="E72" s="3">
         <v>3518000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3405800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3222500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3155200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3096200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3035900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2935200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2939500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2824900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2732400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2519200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2451500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2427600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2352600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2311700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2328700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2285900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2343900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2282200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2219500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2194600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4956,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5027,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5098,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3795500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3754700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3657900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3466100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3375800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3336500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3236200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3097400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3073000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2979300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2853000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2664800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2569900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2540000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2507100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2434000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2560500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2430500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2472500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2358500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2218900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2139300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5240,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44647</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44374</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44283</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43737</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43282</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43191</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43009</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42918</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42827</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E81" s="3">
         <v>128100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>199200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>83200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>74900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>76100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>116600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>131200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>108300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>228900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>83400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>40900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>90600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>56500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>56200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-42700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>77000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>78000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>40200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>61100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5414,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E83" s="3">
         <v>58700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>58800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>60400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>59400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>57300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>56900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>57300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>55800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>53900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>51900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>48900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>36900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>36500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>33000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>30100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5556,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5627,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5698,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5769,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5840,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E89" s="3">
         <v>201500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>185200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>154200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>110600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>195500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>107300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>145300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>147700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>131700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>96300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>63800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>135100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>121100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>94500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>86600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>101300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>121800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>106100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>90700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>108300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5938,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6080,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6151,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>199500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-519000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-284400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-118100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-774500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-34400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-982100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6249,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6267,7 +6501,7 @@
         <v>-15900</v>
       </c>
       <c r="H96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="I96" s="3">
         <v>-15800</v>
@@ -6282,7 +6516,7 @@
         <v>-15800</v>
       </c>
       <c r="M96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="N96" s="3">
         <v>-15700</v>
@@ -6291,19 +6525,19 @@
         <v>-15700</v>
       </c>
       <c r="P96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="Q96" s="3">
         <v>-15600</v>
       </c>
       <c r="R96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="S96" s="3">
         <v>-15500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-15300</v>
       </c>
       <c r="U96" s="3">
         <v>-15300</v>
@@ -6315,13 +6549,16 @@
         <v>-15300</v>
       </c>
       <c r="X96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="Y96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6391,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6462,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6533,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-215400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-259700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-109200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-131500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>338900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-296200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>405300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-108300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-142900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-43300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-124400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-97300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-69700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-32700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>237700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-103600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1021300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-20800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>13000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>16200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>26500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>15500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>119400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>37200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-51200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-206100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>147100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>105400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-46400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-85900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-32600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>45300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-684000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>341400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-12900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>145300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>44300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,344 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44738</v>
+      </c>
+      <c r="E7" s="2">
         <v>44647</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44374</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44283</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43737</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43282</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43191</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43009</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42918</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42827</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>704500</v>
+      </c>
+      <c r="E8" s="3">
         <v>641700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>761900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>713500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>633900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>711200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>628300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>567000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>630600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>681000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>648300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>652500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>613600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>641600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>609700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>609900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>587200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>595100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>534700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>528600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>487900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>513900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>315700</v>
+      </c>
+      <c r="E9" s="3">
         <v>295500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>342200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>312500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>315900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>289400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>327600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>299000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>288700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>297000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>282700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>272600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>289600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>275800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>267100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>265100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>256000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>264400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>239500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>238300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>232300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>240900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>388800</v>
+      </c>
+      <c r="E10" s="3">
         <v>346200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>419700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>387800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>397600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>344500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>383600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>329300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>278300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>333600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>398300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>375700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>352200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>324000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>365800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>342600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>344800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>331200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>330700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>295200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>290300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>255600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>273000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,82 +1029,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E12" s="3">
         <v>36400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>35800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>33300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>31100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>28000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>26400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>26000</v>
       </c>
       <c r="T12" s="3">
         <v>26000</v>
       </c>
       <c r="U12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="V12" s="3">
         <v>25500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>20300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>17800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>15700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1164,82 +1181,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-90200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>47800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>55400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2900</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>27400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>46400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>569400</v>
+      </c>
+      <c r="E17" s="3">
         <v>538200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>606800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>459300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>597800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>530500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>616100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>496200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>528200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>473600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>562800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>530700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>545000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>538300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>522300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>527600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>576400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>504200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>424300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>418400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>432600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>446900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E18" s="3">
         <v>103500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>155100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>241000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>115700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>103400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>95100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>132100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>157000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>118200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>117600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>107500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>75300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>119300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>82100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>86800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>90900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>110400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>110200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>55300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>67000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1513,13 +1546,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1531,10 +1565,10 @@
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1543,40 +1577,40 @@
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>500</v>
       </c>
       <c r="O20" s="3">
         <v>500</v>
       </c>
       <c r="P20" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
-      </c>
-      <c r="W20" s="3">
-        <v>200</v>
       </c>
       <c r="X20" s="3">
         <v>200</v>
@@ -1587,304 +1621,319 @@
       <c r="Z20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>192100</v>
+      </c>
+      <c r="E21" s="3">
         <v>161700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>214000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>176300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>163500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>152600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>189200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>96300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>213400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>172700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>170800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>161800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>129000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>172900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>134400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>85600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>139800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>140000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>147500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>146800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>88400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>97300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E22" s="3">
         <v>10400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>12000</v>
       </c>
       <c r="F22" s="3">
         <v>12000</v>
       </c>
       <c r="G22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H22" s="3">
         <v>16200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>27200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>26600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>25900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>21300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>19900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>17700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>16400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E23" s="3">
         <v>93300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>143300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>229200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>99700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>87300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>76600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>115700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>142200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>101300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>87200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>52900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>96200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>61200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>67400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>89400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>90500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>37700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>50800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-130400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E26" s="3">
         <v>77400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>127500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>199500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>83300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>74900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>76600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>116600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>131200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>107800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>228900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>83300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>87500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>56500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>54900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>65100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>79400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>78400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>40300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>60900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E27" s="3">
         <v>77400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>127500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>199500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>83300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>74900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>76600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>116600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>131200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>107800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>228900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>83300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>87500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>56500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>54900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>65100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>79400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>78400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>40300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>60900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2179,32 +2237,35 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-300</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -2212,49 +2273,52 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>3100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-107700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-2400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2401,13 +2468,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -2419,10 +2489,10 @@
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -2431,40 +2501,40 @@
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-500</v>
       </c>
       <c r="O32" s="3">
         <v>-500</v>
       </c>
       <c r="P32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-200</v>
       </c>
       <c r="X32" s="3">
         <v>-200</v>
@@ -2475,82 +2545,88 @@
       <c r="Z32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E33" s="3">
         <v>77100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>128100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>199200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>83200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>74900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>76100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>116600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>131200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>108300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>228900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>83400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>90600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>56500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>56200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-42700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>77000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>78000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>40200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>61100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2623,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E35" s="3">
         <v>77100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>128100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>199200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>83200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>74900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>76100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>116600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>131200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>108300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>228900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>83400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>90600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>56500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>56200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-42700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>77000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>78000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>40200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>61100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44738</v>
+      </c>
+      <c r="E38" s="2">
         <v>44647</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44374</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44283</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43737</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43282</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43191</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43009</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42918</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42827</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2832,82 +2918,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>308100</v>
+      </c>
+      <c r="E41" s="3">
         <v>466700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>445100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>481200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>361800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>324600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>375900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>347500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>553500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>406500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>301100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>257500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>303900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>271200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>357200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>356300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>346300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>378900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>333600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1017600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>676200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>689100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>543800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2980,304 +3070,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>415300</v>
+      </c>
+      <c r="E43" s="3">
         <v>407200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>383600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>399700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>414200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>401100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>395100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>390500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>374900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>441700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>418700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>396700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>382100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>375800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>366300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>374300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>359100</v>
       </c>
       <c r="T43" s="3">
         <v>359100</v>
       </c>
       <c r="U43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="V43" s="3">
         <v>345900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>306500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>303700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>282900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>272000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>510500</v>
+      </c>
+      <c r="E44" s="3">
         <v>491400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>477600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>484300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>490300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>512300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>513200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>526100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>514800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>488900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>476600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>472600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>461300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>445600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>427800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>411100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>405400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>403700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>395700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>382400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>368500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>355300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>316200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E45" s="3">
         <v>129000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>122800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>176600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>170900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>140800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>138300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>156500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>101400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>109700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>110000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>110800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>97800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>90100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>84900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>99100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>74400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>63500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>53600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>60300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>59200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>67800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>51400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1385300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1494200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1429100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1541800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1437200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1378800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1422400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1420600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1544600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1446800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1306300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1237600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1245100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1182600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1236200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1240800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1185300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1205200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1128800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1766800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1407600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1395100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1183400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3341,165 +3446,174 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>40</v>
+      <c r="X47" s="3">
+        <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>548000</v>
+      </c>
+      <c r="E48" s="3">
         <v>560400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>573400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>576300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>564900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>562200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>574500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>548200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>534400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>534700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>543900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>544800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>533000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>522200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>432800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>421300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>411000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>389500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>383000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>374500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>369300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>355200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>302900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4688000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4736300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4793300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4860200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4918800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5036100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5105700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4592800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4604400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4629600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4401600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4407000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4492500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4522300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4571600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4486200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4527100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4655000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4619300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3493100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3467000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3436000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2368400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E52" s="3">
         <v>82400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>61600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>145500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>50900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>49900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>51800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>81700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>58000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>67800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>43800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>41000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>37400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>52400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>52000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>50900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>50300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>46400</v>
-      </c>
-      <c r="W52" s="3">
-        <v>46100</v>
       </c>
       <c r="X52" s="3">
         <v>46100</v>
       </c>
       <c r="Y52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="Z52" s="3">
         <v>36500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6731800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6873300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6871700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7040000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7066400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7028000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7152600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6613300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6765100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6701600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6309800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6257200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6314400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6268100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6278000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6200700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6175300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6300600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6181500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5680700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5290000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5232400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3891200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,82 +4054,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E57" s="3">
         <v>117500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>118200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>104100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>106600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>101300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>102500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>96900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>107100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>104300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>102900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>108100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>103500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>106700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>97600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>94800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>84700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>92000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>85400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>82000</v>
       </c>
       <c r="X57" s="3">
         <v>82000</v>
       </c>
       <c r="Y57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="Z57" s="3">
         <v>69400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4010,28 +4144,28 @@
         <v>110000</v>
       </c>
       <c r="F58" s="3">
+        <v>110000</v>
+      </c>
+      <c r="G58" s="3">
         <v>101300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>92500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>83800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>91800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>50000</v>
       </c>
       <c r="N58" s="3">
         <v>50000</v>
@@ -4040,336 +4174,351 @@
         <v>50000</v>
       </c>
       <c r="P58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="Q58" s="3">
         <v>86600</v>
       </c>
       <c r="R58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="S58" s="3">
         <v>77300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>86900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>77500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>86600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>77300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>112000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>131100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>183100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E59" s="3">
         <v>428700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>451900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>356800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>327800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>323000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>337000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>286600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>266500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>244300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>410100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>379700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>335800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>330800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>389100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>374400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>354700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>389600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>305200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>212000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>182000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>179200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>175200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>610400</v>
+      </c>
+      <c r="E60" s="3">
         <v>656200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>680100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>562200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>526800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>508100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>540000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>475200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>456600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>402300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>563100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>530400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>493900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>520900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>582500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>549300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>536400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>551800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>483900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>374600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>376100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>392400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>427600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1606000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1740800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1740100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1948700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2215700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2295400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2377900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2035800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2328800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2340900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1858900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1949100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2081400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2072900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2072200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2075800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2145500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2154200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2162900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2172800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1887700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1957800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>850300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>662700</v>
+      </c>
+      <c r="E62" s="3">
         <v>680800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>696800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>871200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>857800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>848700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>898200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>866000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>882300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>885300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>908500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>924800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1074300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1104300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1083400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1068500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1059400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1034100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1104200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>660800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>667700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>663400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>474000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2879100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3077800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3117000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3382100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3652200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3816100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3377100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3667700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3628500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3330500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3404200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3649600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3698200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3738000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3693700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3741300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3740100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3751000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3208300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2931500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3013500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1751900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5159,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3668700</v>
+      </c>
+      <c r="E72" s="3">
         <v>3579100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3518000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3405800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3222500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3155200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3096200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3035900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2935200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2939500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2824900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2732400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2519200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2451500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2427600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2352600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2311700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2328700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2285900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2343900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2282200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2219500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2194600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3852700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3795500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3754700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3657900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3466100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3375800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3336500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3236200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3097400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3073000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2979300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2853000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2664800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2569900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2540000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2507100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2434000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2560500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2430500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2472500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2358500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2218900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2139300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44738</v>
+      </c>
+      <c r="E80" s="2">
         <v>44647</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44374</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44283</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43737</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43282</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43191</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43009</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42918</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42827</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E81" s="3">
         <v>77100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>128100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>199200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>83200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>74900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>76100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>116600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>131200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>108300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>228900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>83400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>90600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>56500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>56200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-42700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>77000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>78000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>40200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>61100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E83" s="3">
         <v>57900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>58700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>58800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>60400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>59400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>57300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>56900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>57300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>55800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>53500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>51900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>48900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>36900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>36500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>33000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>30100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E89" s="3">
         <v>62000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>201500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>185200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>154200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>110600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>195500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>107300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>145300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>147700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>131700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>96300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>63800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>135100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>121100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>94500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>86600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>101300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>121800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>106100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>90700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>108300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>199500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-519000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-284400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-118100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-774500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-34400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-982100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6504,7 +6738,7 @@
         <v>-15900</v>
       </c>
       <c r="I96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="J96" s="3">
         <v>-15800</v>
@@ -6519,7 +6753,7 @@
         <v>-15800</v>
       </c>
       <c r="N96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="O96" s="3">
         <v>-15700</v>
@@ -6528,19 +6762,19 @@
         <v>-15700</v>
       </c>
       <c r="Q96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="R96" s="3">
         <v>-15600</v>
       </c>
       <c r="S96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="T96" s="3">
         <v>-15500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-15300</v>
       </c>
       <c r="V96" s="3">
         <v>-15300</v>
@@ -6552,13 +6786,16 @@
         <v>-15300</v>
       </c>
       <c r="Y96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="Z96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7022,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-153800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-21000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-215400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-259700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-109200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-131500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>338900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-296200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>405300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-108300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-142900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-43300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-124400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-97300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-69700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-32700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>237700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-103600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1021300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-20800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>16200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>26500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>15500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-158500</v>
+      </c>
+      <c r="E102" s="3">
         <v>21600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-36100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>119400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>37200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-51200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-206100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>147100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>105400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-46400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-85900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-32600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>45300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-684000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>341400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-12900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>145300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>44300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,357 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44829</v>
+      </c>
+      <c r="E7" s="2">
         <v>44738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44647</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44374</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44283</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43737</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43282</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43191</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43009</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42918</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42827</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>686800</v>
+      </c>
+      <c r="E8" s="3">
         <v>704500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>641700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>761900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>713500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>633900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>711200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>628300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>567000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>630600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>681000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>648300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>652500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>613600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>641600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>609700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>609900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>587200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>595100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>534700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>528600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>487900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>513900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>312800</v>
+      </c>
+      <c r="E9" s="3">
         <v>315700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>295500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>342200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>312500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>315900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>289400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>327600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>299000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>288700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>297000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>282700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>272600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>289600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>275800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>267100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>265100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>256000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>264400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>239500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>238300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>232300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>240900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E10" s="3">
         <v>388800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>346200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>419700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>387800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>397600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>344500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>383600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>329300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>278300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>333600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>398300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>375700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>352200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>324000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>365800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>342600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>344800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>331200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>330700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>295200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>290300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>255600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>273000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,85 +1043,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E12" s="3">
         <v>36900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>35800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>31800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>33300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>29900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>31100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>28000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>26400</v>
-      </c>
-      <c r="T12" s="3">
-        <v>26000</v>
       </c>
       <c r="U12" s="3">
         <v>26000</v>
       </c>
       <c r="V12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="W12" s="3">
         <v>25500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>21200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>20300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>17800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>15700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,85 +1201,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-90200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>47800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>19200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>55400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2900</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>27400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>46400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1338,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>554300</v>
+      </c>
+      <c r="E17" s="3">
         <v>569400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>538200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>606800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>459300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>597800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>530500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>616100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>496200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>528200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>473600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>562800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>530700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>545000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>538300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>522300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>527600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>576400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>504200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>424300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>418400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>432600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>446900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E18" s="3">
         <v>135100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>103500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>155100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>241000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>115700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>103400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>95100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>132100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>157000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>118200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>117600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>107500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>75300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>119300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>82100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>86800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>90900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>110400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>110200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>55300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>67000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1547,16 +1580,17 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1568,10 +1602,10 @@
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
@@ -1580,40 +1614,40 @@
         <v>200</v>
       </c>
       <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>500</v>
       </c>
       <c r="P20" s="3">
         <v>500</v>
       </c>
       <c r="Q20" s="3">
+        <v>500</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
-      </c>
-      <c r="X20" s="3">
-        <v>200</v>
       </c>
       <c r="Y20" s="3">
         <v>200</v>
@@ -1624,316 +1658,331 @@
       <c r="AA20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E21" s="3">
         <v>192100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>161700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>214000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>176300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>163500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>152600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>189200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>96300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>213400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>172700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>170800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>161800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>129000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>172900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>134400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>85600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>139800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>140000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>147500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>146800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>88400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>97300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E22" s="3">
         <v>11400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>12000</v>
       </c>
       <c r="G22" s="3">
         <v>12000</v>
       </c>
       <c r="H22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I22" s="3">
         <v>16200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>27200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>26600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>25900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>21300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>19900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>17700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>16400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>119200</v>
+      </c>
+      <c r="E23" s="3">
         <v>124000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>93300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>143300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>229200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>99700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>87300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>76600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>115700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>142200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>101300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>87200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>52900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>96200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>55300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>61200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>67400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>89400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>90500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>37700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>50800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E24" s="3">
         <v>18400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-130400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2009,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E26" s="3">
         <v>105600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>77400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>127500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>199500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>83300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>74900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>76600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>116600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>131200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>228900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>83300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>87500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>56500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>54900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>65100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>79400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>78400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>40300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>60900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E27" s="3">
         <v>105600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>77400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>127500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>199500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>83300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>74900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>76600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>116600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>131200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>107800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>228900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>83300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>87500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>56500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>54900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>65100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>79400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>78400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>40300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>60900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2249,26 +2310,26 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-300</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2276,49 +2337,52 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>3100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-107700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-2400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2471,16 +2538,19 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -2492,10 +2562,10 @@
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
@@ -2504,40 +2574,40 @@
         <v>-200</v>
       </c>
       <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-500</v>
       </c>
       <c r="P32" s="3">
         <v>-500</v>
       </c>
       <c r="Q32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-200</v>
       </c>
       <c r="Y32" s="3">
         <v>-200</v>
@@ -2548,85 +2618,91 @@
       <c r="AA32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E33" s="3">
         <v>105500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>77100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>128100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>199200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>83200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>74900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>76100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>116600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>131200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>108300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>228900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>83400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>90600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>56500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>56200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-42700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>77000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>78000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>40200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>61100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2702,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E35" s="3">
         <v>105500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>77100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>128100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>199200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>83200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>74900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>76100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>116600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>131200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>108300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>228900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>83400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>90600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>56500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>56200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-42700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>77000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>78000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>40200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>61100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44829</v>
+      </c>
+      <c r="E38" s="2">
         <v>44738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44647</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44374</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44283</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43737</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43282</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43191</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43009</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42918</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42827</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2919,85 +3005,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>397300</v>
+      </c>
+      <c r="E41" s="3">
         <v>308100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>466700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>445100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>481200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>361800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>324600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>375900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>347500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>553500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>406500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>301100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>257500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>303900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>271200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>357200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>356300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>346300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>378900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>333600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1017600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>676200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>689100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>543800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3073,316 +3163,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>391300</v>
+      </c>
+      <c r="E43" s="3">
         <v>415300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>407200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>383600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>399700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>414200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>401100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>395100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>390500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>374900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>441700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>418700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>396700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>382100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>375800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>366300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>374300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>359100</v>
       </c>
       <c r="U43" s="3">
         <v>359100</v>
       </c>
       <c r="V43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="W43" s="3">
         <v>345900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>306500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>303700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>282900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>272000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>530100</v>
+      </c>
+      <c r="E44" s="3">
         <v>510500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>491400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>477600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>484300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>490300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>512300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>513200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>526100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>514800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>488900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>476600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>472600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>461300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>445600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>427800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>411100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>405400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>403700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>395700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>382400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>368500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>355300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>316200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E45" s="3">
         <v>151400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>129000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>122800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>176600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>170900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>140800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>138300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>156500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>101400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>109700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>110000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>110800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>97800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>90100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>84900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>99100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>74400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>63500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>53600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>60300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>59200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>67800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>51400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1459400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1385300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1494200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1429100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1541800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1437200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1378800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1422400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1420600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1544600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1446800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1306300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1237600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1245100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1182600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1236200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1240800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1185300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1205200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1128800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1766800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1407600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1395100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1183400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3449,171 +3554,180 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>40</v>
+      <c r="Y47" s="3">
+        <v>0</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>534400</v>
+      </c>
+      <c r="E48" s="3">
         <v>548000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>560400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>573400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>576300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>564900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>562200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>574500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>548200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>534400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>534700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>543900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>544800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>533000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>522200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>432800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>421300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>411000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>389500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>383000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>374500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>369300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>355200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>302900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4591600</v>
+      </c>
+      <c r="E49" s="3">
         <v>4688000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4736300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4793300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4860200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4918800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5036100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5105700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4592800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4604400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4629600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4401600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4407000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4492500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4522300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4571600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4486200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4527100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4655000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4619300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3493100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3467000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3436000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2368400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,85 +3883,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>172700</v>
+      </c>
+      <c r="E52" s="3">
         <v>110600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>82400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>75900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>61600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>145500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>50900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>49900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>51800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>81700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>90400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>67800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>43800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>41000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>37400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>52400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>52000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>50900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>50300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>46400</v>
-      </c>
-      <c r="X52" s="3">
-        <v>46100</v>
       </c>
       <c r="Y52" s="3">
         <v>46100</v>
       </c>
       <c r="Z52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="AA52" s="3">
         <v>36500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,85 +4043,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6758100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6731800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6873300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6871700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7040000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7066400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7028000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7152600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6613300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6765100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6701600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6309800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6257200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6314400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6268100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6278000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6200700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6175300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6300600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6181500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5680700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5290000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5232400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3891200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,90 +4185,94 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E57" s="3">
         <v>121400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>117500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>118200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>104100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>106600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>101300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>102500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>96900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>107100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>104300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>102900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>108100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>103500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>106700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>97600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>94800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>84700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>92000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>85400</v>
-      </c>
-      <c r="X57" s="3">
-        <v>82000</v>
       </c>
       <c r="Y57" s="3">
         <v>82000</v>
       </c>
       <c r="Z57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="AA57" s="3">
         <v>69400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>110000</v>
+        <v>114400</v>
       </c>
       <c r="E58" s="3">
         <v>110000</v>
@@ -4147,28 +4281,28 @@
         <v>110000</v>
       </c>
       <c r="G58" s="3">
+        <v>110000</v>
+      </c>
+      <c r="H58" s="3">
         <v>101300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>92500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>83800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>91800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>83000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>53600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>50000</v>
       </c>
       <c r="O58" s="3">
         <v>50000</v>
@@ -4177,348 +4311,363 @@
         <v>50000</v>
       </c>
       <c r="Q58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="R58" s="3">
         <v>86600</v>
       </c>
       <c r="S58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="T58" s="3">
         <v>77300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>86900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>77500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>86600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>77300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>112000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>131100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>183100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>375100</v>
+      </c>
+      <c r="E59" s="3">
         <v>379000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>428700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>451900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>356800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>327800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>323000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>337000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>286600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>266500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>244300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>410100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>379700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>335800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>330800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>389100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>374400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>354700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>389600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>305200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>212000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>182000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>179200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>175200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>610900</v>
+      </c>
+      <c r="E60" s="3">
         <v>610400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>656200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>680100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>562200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>526800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>508100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>540000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>475200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>456600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>402300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>563100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>530400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>493900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>520900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>582500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>549300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>536400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>551800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>483900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>374600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>376100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>392400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>427600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1593500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1606000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1740800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1740100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1948700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2215700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2295400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2377900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2035800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2328800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2340900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1858900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1949100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2081400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2072900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2072200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2075800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2145500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2154200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2162900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2172800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1887700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1957800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>850300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>658500</v>
+      </c>
+      <c r="E62" s="3">
         <v>662700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>680800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>696800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>871200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>857800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>848700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>898200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>866000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>882300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>885300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>908500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>924800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1074300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1104300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1083400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1068500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1059400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1034100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1104200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>660800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>667700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>663400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>474000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,85 +4903,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2862900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2879100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3077800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3117000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3382100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3600300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3652200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3816100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3377100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3667700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3628500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3330500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3404200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3649600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3698200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3738000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3693700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3741300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3740100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3751000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3208300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2931500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3013500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1751900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,85 +5333,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3754700</v>
+      </c>
+      <c r="E72" s="3">
         <v>3668700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3579100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3518000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3405800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3222500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3155200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3096200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3035900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2935200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2939500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2824900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2732400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2519200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2451500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2427600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2352600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2311700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2328700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2285900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2343900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2282200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2219500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2194600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,85 +5653,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3895200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3852700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3795500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3754700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3657900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3466100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3375800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3336500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3236200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3097400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3073000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2979300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2853000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2664800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2569900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2540000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2507100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2434000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2560500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2430500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2472500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2358500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2218900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2139300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44829</v>
+      </c>
+      <c r="E80" s="2">
         <v>44738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44647</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44374</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44283</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43737</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43282</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43191</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43009</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42918</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42827</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E81" s="3">
         <v>105500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>77100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>128100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>199200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>83200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>74900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>76100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>116600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>131200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>108300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>228900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>83400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>90600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>56500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>56200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-42700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>77000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>78000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>40200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>61100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6010,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E83" s="3">
         <v>56700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>57900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>58700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>58800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>60400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>59400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>57300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>56900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>55800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>53400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>51900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>48900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>36900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>36500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>33000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>30100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E89" s="3">
         <v>39600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>201500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>185200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>154200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>110600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>195500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>107300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>145300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>147700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>131700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>96300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>63800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>135100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>121100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>94500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>86600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>101300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>121800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>106100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>90700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>108300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-23900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-31800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>199500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-519000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-284400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-118100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-774500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-34400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-41900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-982100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6950,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6741,7 +6975,7 @@
         <v>-15900</v>
       </c>
       <c r="J96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="K96" s="3">
         <v>-15800</v>
@@ -6756,7 +6990,7 @@
         <v>-15800</v>
       </c>
       <c r="O96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="P96" s="3">
         <v>-15700</v>
@@ -6765,19 +6999,19 @@
         <v>-15700</v>
       </c>
       <c r="R96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="S96" s="3">
         <v>-15600</v>
       </c>
       <c r="T96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="U96" s="3">
         <v>-15500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-15300</v>
       </c>
       <c r="W96" s="3">
         <v>-15300</v>
@@ -6789,13 +7023,16 @@
         <v>-15300</v>
       </c>
       <c r="Z96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="AA96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,235 +7268,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-153800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-21000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-215400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-259700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-109200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-131500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>338900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-296200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>405300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-108300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-142900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-124400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-97300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-69700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-32700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-14100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>237700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-103600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1021300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-20800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-16300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>16200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>26500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>15500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-26400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-158500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-36100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>119400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>37200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-51200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-206100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>147100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>105400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-46400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-85900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-32600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>45300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-684000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>341400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-12900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>145300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>44300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,369 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44829</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44647</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44374</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44283</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43737</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43282</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43191</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43009</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42918</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42827</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E8" s="3">
         <v>686800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>704500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>641700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>761900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>713500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>633900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>711200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>628300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>567000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>630600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>681000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>648300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>652500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>613600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>641600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>609700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>609900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>587200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>595100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>534700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>528600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>487900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>513900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>335900</v>
+      </c>
+      <c r="E9" s="3">
         <v>312800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>315700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>295500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>342200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>312500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>315900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>289400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>327600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>299000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>288700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>297000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>282700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>272600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>289600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>275800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>267100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>265100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>256000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>264400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>239500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>238300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>232300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>240900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>422100</v>
+      </c>
+      <c r="E10" s="3">
         <v>374000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>388800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>346200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>419700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>387800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>397600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>344500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>383600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>329300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>278300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>333600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>398300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>375700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>352200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>324000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>365800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>342600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>344800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>331200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>330700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>295200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>290300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>255600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>273000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,88 +1056,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E12" s="3">
         <v>37800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>36400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>35800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>31800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>33300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>31100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>28000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>26400</v>
-      </c>
-      <c r="U12" s="3">
-        <v>26000</v>
       </c>
       <c r="V12" s="3">
         <v>26000</v>
       </c>
       <c r="W12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="X12" s="3">
         <v>25500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>21200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>20300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>17800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>15700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,88 +1220,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-5900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-90200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>24500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>47800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>19200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>55400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2900</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>27400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>46400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1364,8 +1386,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>629900</v>
+      </c>
+      <c r="E17" s="3">
         <v>554300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>569400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>538200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>606800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>459300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>597800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>530500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>616100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>496200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>528200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>473600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>562800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>530700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>545000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>538300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>522300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>527600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>576400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>504200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>424300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>418400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>432600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>446900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E18" s="3">
         <v>132500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>135100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>103500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>155100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>241000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>115700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>103400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>132100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>157000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>118200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>117600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>107500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>75300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>119300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>82100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>33500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>86800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>90900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>110400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>110200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>55300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>67000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1581,19 +1613,20 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1605,10 +1638,10 @@
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
@@ -1617,40 +1650,40 @@
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>500</v>
       </c>
       <c r="Q20" s="3">
         <v>500</v>
       </c>
       <c r="R20" s="3">
+        <v>500</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>200</v>
       </c>
       <c r="Z20" s="3">
         <v>200</v>
@@ -1661,328 +1694,343 @@
       <c r="AB20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E21" s="3">
         <v>188900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>192100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>161700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>214000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>176300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>163500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>152600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>189200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>96300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>213400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>172700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>170800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>161800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>129000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>172900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>134400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>85600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>139800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>140000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>147500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>146800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>88400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>97300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E22" s="3">
         <v>13400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>12000</v>
       </c>
       <c r="H22" s="3">
         <v>12000</v>
       </c>
       <c r="I22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J22" s="3">
         <v>16200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>20800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>27200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>26600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>25900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>23700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>21300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>19900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>17700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>16400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E23" s="3">
         <v>119200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>124000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>93300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>143300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>229200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>99700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>87300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>115700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>142200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>101300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>98500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>87200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>52900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>96200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>55300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>61200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>67400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>89400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>90500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>37700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>50800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E24" s="3">
         <v>17300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-130400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-10100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2061,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E26" s="3">
         <v>101900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>105600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>127500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>199500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>83300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>74900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>76600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>116600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>131200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>107800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>228900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>83300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>87500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>56500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>54900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>65100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>79400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>78400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>40300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>60900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E27" s="3">
         <v>101900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>105600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>77400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>127500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>199500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>83300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>74900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>76600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>116600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>131200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>107800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>228900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>83300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>41900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>87500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>56500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>54900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>65100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>79400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>78400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>40300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>60900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2301,38 +2358,41 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2340,49 +2400,52 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>500</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>3100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-107700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-400</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-200</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>200</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2461,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2541,19 +2607,22 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -2565,10 +2634,10 @@
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
@@ -2577,40 +2646,40 @@
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-500</v>
       </c>
       <c r="Q32" s="3">
         <v>-500</v>
       </c>
       <c r="R32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-200</v>
       </c>
       <c r="Z32" s="3">
         <v>-200</v>
@@ -2621,88 +2690,94 @@
       <c r="AB32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E33" s="3">
         <v>101900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>105500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>77100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>128100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>199200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>83200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>74900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>76100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>116600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>131200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>108300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>228900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>83400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>90600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>56500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>56200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-42700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>77000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>78000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>40200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>61100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2781,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E35" s="3">
         <v>101900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>105500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>77100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>128100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>199200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>83200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>74900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>76100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>116600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>131200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>108300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>228900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>83400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>90600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>56500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>56200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-42700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>77000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>78000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>40200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>61100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44829</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44647</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44374</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44283</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43737</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43282</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43191</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43009</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42918</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42827</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2976,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3006,88 +3091,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E41" s="3">
         <v>397300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>308100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>466700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>445100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>481200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>361800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>324600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>375900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>347500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>553500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>406500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>301100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>257500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>303900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>271200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>357200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>356300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>346300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>378900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>333600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1017600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>676200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>689100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>543800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3166,328 +3255,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>408800</v>
+      </c>
+      <c r="E43" s="3">
         <v>391300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>415300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>407200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>383600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>399700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>414200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>401100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>395100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>390500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>374900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>441700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>418700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>396700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>382100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>375800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>366300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>374300</v>
-      </c>
-      <c r="U43" s="3">
-        <v>359100</v>
       </c>
       <c r="V43" s="3">
         <v>359100</v>
       </c>
       <c r="W43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="X43" s="3">
         <v>345900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>306500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>303700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>282900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>272000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>578500</v>
+      </c>
+      <c r="E44" s="3">
         <v>530100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>510500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>491400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>477600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>484300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>490300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>512300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>513200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>526100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>514800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>488900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>476600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>472600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>461300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>445600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>427800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>411100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>405400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>403700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>395700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>382400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>368500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>355300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>316200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E45" s="3">
         <v>140800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>151400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>129000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>122800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>176600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>170900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>140800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>138300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>156500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>101400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>109700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>110000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>110800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>97800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>90100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>84900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>99100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>74400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>63500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>53600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>60300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>59200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>67800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>51400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1411000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1459400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1385300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1494200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1429100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1541800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1437200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1378800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1422400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1420600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1544600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1446800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1306300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1237600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1245100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1182600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1236200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1240800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1185300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1205200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1128800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1766800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1407600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1395100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1183400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3557,177 +3661,186 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>40</v>
+      <c r="Z47" s="3">
+        <v>0</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>578400</v>
+      </c>
+      <c r="E48" s="3">
         <v>534400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>548000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>560400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>573400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>576300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>564900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>562200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>574500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>548200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>534400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>534700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>543900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>544800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>533000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>522200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>432800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>421300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>411000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>389500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>383000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>374500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>369300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>355200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>302900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4842900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4591600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4688000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4736300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4793300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4860200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4918800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5036100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5105700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4592800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4604400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4629600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4401600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4407000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4492500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4522300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4571600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4486200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4527100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4655000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4619300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3493100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3467000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3436000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2368400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,88 +4002,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E52" s="3">
         <v>172700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>110600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>82400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>61600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>145500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>50900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>51800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>81700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>90400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>41000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>37400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>52400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>52000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>50900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>50300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>46400</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>46100</v>
       </c>
       <c r="Z52" s="3">
         <v>46100</v>
       </c>
       <c r="AA52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="AB52" s="3">
         <v>36500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,88 +4168,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6928100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6758100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6731800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6873300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6871700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7040000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7066400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7028000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7152600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6613300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6765100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6701600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6309800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6257200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6314400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6268100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6278000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6200700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6175300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6300600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6181500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5680700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5290000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5232400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3891200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,96 +4315,100 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E57" s="3">
         <v>121500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>121400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>117500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>118200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>104100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>106600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>101300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>102500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>96900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>107100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>104300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>102900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>108100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>103500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>106700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>97600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>94800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>84700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>92000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>85400</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>82000</v>
       </c>
       <c r="Z57" s="3">
         <v>82000</v>
       </c>
       <c r="AA57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="AB57" s="3">
         <v>69400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E58" s="3">
         <v>114400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>110000</v>
       </c>
       <c r="F58" s="3">
         <v>110000</v>
@@ -4284,28 +4417,28 @@
         <v>110000</v>
       </c>
       <c r="H58" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I58" s="3">
         <v>101300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>92500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>83800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>91800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>83000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>53600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>50000</v>
       </c>
       <c r="P58" s="3">
         <v>50000</v>
@@ -4314,360 +4447,375 @@
         <v>50000</v>
       </c>
       <c r="R58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="S58" s="3">
         <v>86600</v>
       </c>
       <c r="T58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="U58" s="3">
         <v>77300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>86900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>77500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>86600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>77300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>112000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>131100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>183100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>367200</v>
+      </c>
+      <c r="E59" s="3">
         <v>375100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>379000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>428700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>451900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>356800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>327800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>323000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>337000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>286600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>266500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>244300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>410100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>379700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>335800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>330800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>389100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>374400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>354700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>389600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>305200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>212000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>182000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>179200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>175200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>581500</v>
+      </c>
+      <c r="E60" s="3">
         <v>610900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>610400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>656200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>680100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>562200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>526800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>508100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>540000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>475200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>456600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>402300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>563100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>530400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>493900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>520900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>582500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>549300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>536400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>551800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>483900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>374600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>376100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>392400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>427600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1624000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1593500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1606000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1740800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1740100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1948700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2215700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2295400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2377900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2035800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2328800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2340900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1858900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1949100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2081400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2072900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2072200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2075800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2145500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2154200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2162900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2172800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1887700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1957800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>850300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700600</v>
+      </c>
+      <c r="E62" s="3">
         <v>658500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>662700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>680800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>696800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>871200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>857800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>848700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>898200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>866000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>882300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>885300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>908500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>924800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1074300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1104300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1083400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1068500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1059400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1034100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1104200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>660800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>667700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>663400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>474000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4826,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,88 +5060,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2906100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2862900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2879100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3077800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3117000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3382100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3652200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3816100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3377100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3667700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3628500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3330500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3404200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3649600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3698200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3738000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3693700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3741300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3740100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3751000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3208300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2931500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3013500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1751900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,88 +5506,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3817300</v>
+      </c>
+      <c r="E72" s="3">
         <v>3754700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3668700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3579100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3518000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3405800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3222500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3155200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3096200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3035900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2935200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2939500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2824900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2732400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2519200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2451500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2427600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2352600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2311700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2328700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2285900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2343900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2282200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2219500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2194600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,88 +5838,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4022000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3895200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3852700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3795500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3754700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3657900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3466100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3375800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3336500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3236200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3097400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3073000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2979300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2853000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2664800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2569900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2540000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2507100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2434000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2560500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2430500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2472500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2358500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2218900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2139300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44829</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44647</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44374</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44283</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43737</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43282</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43191</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43009</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42918</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42827</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E81" s="3">
         <v>101900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>105500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>77100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>128100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>199200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>83200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>74900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>76100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>116600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>131200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>108300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>228900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>83400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>90600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>56500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>56200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-42700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>77000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>78000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>40200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>61100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,88 +6208,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E83" s="3">
         <v>56300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>56700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>57900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>58700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>58800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>59400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>57300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>56900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>55800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>54100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>53900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>51900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>52600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>48900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>36900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>36500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>33000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>30100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E89" s="3">
         <v>142400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>39600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>201500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>185200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>154200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>110600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>195500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>107300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>145300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>147700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>131700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>96300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>63800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>135100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>121100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>94500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>86600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>101300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>121800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>106100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>90700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>108300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +6820,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-23900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7067,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>199500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-519000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-284400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-118100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-41000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-774500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-34400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-41900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-982100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-16800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7183,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6978,7 +7211,7 @@
         <v>-15900</v>
       </c>
       <c r="K96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="L96" s="3">
         <v>-15800</v>
@@ -6993,7 +7226,7 @@
         <v>-15800</v>
       </c>
       <c r="P96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="Q96" s="3">
         <v>-15700</v>
@@ -7002,19 +7235,19 @@
         <v>-15700</v>
       </c>
       <c r="S96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="T96" s="3">
         <v>-15600</v>
       </c>
       <c r="U96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="V96" s="3">
         <v>-15500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-15300</v>
       </c>
       <c r="X96" s="3">
         <v>-15300</v>
@@ -7026,13 +7259,16 @@
         <v>-15300</v>
       </c>
       <c r="AA96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="AB96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,244 +7513,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-153800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-21000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-215400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-259700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-109200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-131500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>338900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-296200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>405300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-108300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-142900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-43300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-124400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-97300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-69700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-32700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>237700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-103600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1021300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-20800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-15000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-16300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>16200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>26500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>15500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-26400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-105200</v>
+      </c>
+      <c r="E102" s="3">
         <v>89100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-158500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-36100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>119400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>37200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-51200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-206100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>147100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>105400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-46400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>32700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-85900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>10000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-32600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>45300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-684000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>341400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-12900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>145300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>44300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,382 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44829</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44647</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44374</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44283</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43737</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43282</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43191</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43009</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42918</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42827</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>710900</v>
+      </c>
+      <c r="E8" s="3">
         <v>758000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>686800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>704500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>641700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>761900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>713500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>633900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>711200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>628300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>567000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>630600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>681000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>648300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>652500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>613600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>641600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>609700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>609900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>587200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>595100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>534700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>528600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>487900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>513900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>319600</v>
+      </c>
+      <c r="E9" s="3">
         <v>335900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>312800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>315700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>295500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>342200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>312500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>315900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>289400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>327600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>299000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>288700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>297000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>282700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>272600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>300300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>289600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>275800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>267100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>265100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>256000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>264400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>239500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>238300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>232300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>240900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>391300</v>
+      </c>
+      <c r="E10" s="3">
         <v>422100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>374000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>388800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>346200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>419700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>387800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>397600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>344500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>383600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>329300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>278300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>333600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>398300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>375700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>352200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>324000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>365800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>342600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>344800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>331200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>330700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>295200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>290300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>255600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>273000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,91 +1070,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E12" s="3">
         <v>42800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>36900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>36400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>35800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>31800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>33300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>31100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>28000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>26400</v>
-      </c>
-      <c r="V12" s="3">
-        <v>26000</v>
       </c>
       <c r="W12" s="3">
         <v>26000</v>
       </c>
       <c r="X12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="Y12" s="3">
         <v>25500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>21200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>20300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>17800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>15700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,91 +1240,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>17800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-5900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-90200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>47800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>19200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>55400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2900</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>27400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>46400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1389,8 +1412,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E17" s="3">
         <v>629900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>554300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>569400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>538200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>606800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>459300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>597800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>530500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>616100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>496200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>528200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>473600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>562800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>530700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>545000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>538300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>522300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>527600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>576400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>504200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>424300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>418400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>432600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>446900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E18" s="3">
         <v>128100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>132500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>135100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>103500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>155100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>241000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>115700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>103400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>132100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>157000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>118200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>117600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>107500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>75300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>119300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>82100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>33500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>86800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>90900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>110400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>110200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>55300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>67000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1614,22 +1647,23 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>200</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1641,10 +1675,10 @@
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
@@ -1653,40 +1687,40 @@
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>500</v>
       </c>
       <c r="R20" s="3">
         <v>500</v>
       </c>
       <c r="S20" s="3">
+        <v>500</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>200</v>
       </c>
       <c r="AA20" s="3">
         <v>200</v>
@@ -1697,340 +1731,355 @@
       <c r="AC20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E21" s="3">
         <v>188100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>188900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>192100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>161700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>214000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>176300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>163500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>152600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>189200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>96300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>213400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>172700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>170800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>161800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>129000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>172900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>134400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>85600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>139800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>140000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>147500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>146800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>88400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>97300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E22" s="3">
         <v>19100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>12000</v>
       </c>
       <c r="I22" s="3">
         <v>12000</v>
       </c>
       <c r="J22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K22" s="3">
         <v>16200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>19500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>20800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>22700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>27200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>26600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>25900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>23700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>21300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>19900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>17700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>16400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E23" s="3">
         <v>109400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>119200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>124000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>93300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>143300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>229200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>99700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>87300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>115700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>142200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>101300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>87200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>52900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>96200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>55300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>61200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>67400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>89400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>90500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>37700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>50800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E24" s="3">
         <v>31300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>29700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-130400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-10100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2112,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E26" s="3">
         <v>78100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>101900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>105600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>77400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>127500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>199500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>83300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>74900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>76600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>116600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>131200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>107800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>228900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>83300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>41900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>87500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>56500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>54900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>65100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>79400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>78400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>40300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>60900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E27" s="3">
         <v>78100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>101900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>105600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>77400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>127500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>199500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>83300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>74900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>116600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>131200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>107800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>228900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>83300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>41900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>87500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>56500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>54900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>65100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>79400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>78400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>40300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>60900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2361,41 +2419,44 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E29" s="3">
         <v>500</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-300</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2403,49 +2464,52 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>500</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>3100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-107700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-400</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-200</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>200</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2610,22 +2677,25 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-200</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -2637,10 +2707,10 @@
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
@@ -2649,40 +2719,40 @@
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-500</v>
       </c>
       <c r="R32" s="3">
         <v>-500</v>
       </c>
       <c r="S32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>-200</v>
       </c>
       <c r="AA32" s="3">
         <v>-200</v>
@@ -2693,91 +2763,97 @@
       <c r="AC32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E33" s="3">
         <v>78600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>101900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>105500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>77100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>128100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>199200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>83200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>76100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>116600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>131200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>108300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>228900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>83400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>90600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>56500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>56200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-42700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>77000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>78000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>40200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>61100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2859,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E35" s="3">
         <v>78600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>101900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>105500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>77100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>128100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>199200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>83200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>76100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>116600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>131200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>108300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>228900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>83400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>90600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>56500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>56200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-42700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>77000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>78000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>40200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>61100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44829</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44647</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44374</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44283</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43737</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43282</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43191</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43009</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42918</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42827</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3092,91 +3178,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>264100</v>
+      </c>
+      <c r="E41" s="3">
         <v>292000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>397300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>308100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>466700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>445100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>481200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>361800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>324600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>375900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>347500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>553500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>406500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>301100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>257500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>303900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>271200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>357200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>356300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>346300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>378900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>333600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1017600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>676200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>689100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>543800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3258,340 +3348,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E43" s="3">
         <v>408800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>391300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>415300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>407200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>383600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>399700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>414200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>401100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>395100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>390500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>374900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>441700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>418700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>396700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>382100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>375800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>366300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>374300</v>
-      </c>
-      <c r="V43" s="3">
-        <v>359100</v>
       </c>
       <c r="W43" s="3">
         <v>359100</v>
       </c>
       <c r="X43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>345900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>306500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>303700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>282900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>272000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>614100</v>
+      </c>
+      <c r="E44" s="3">
         <v>578500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>530100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>510500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>491400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>477600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>484300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>490300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>512300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>513200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>526100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>514800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>488900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>476600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>472600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>461300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>445600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>427800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>411100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>405400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>403700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>395700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>382400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>368500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>355300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>316200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E45" s="3">
         <v>131600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>140800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>151400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>129000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>122800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>176600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>170900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>140800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>138300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>156500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>101400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>109700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>110000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>110800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>97800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>90100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>84900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>99100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>74400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>63500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>53600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>60300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>59200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>67800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>51400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1428100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1411000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1459400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1385300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1494200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1429100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1541800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1437200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1378800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1422400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1420600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1544600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1446800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1306300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1237600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1245100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1182600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1236200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1240800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1185300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1205200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1128800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1766800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1407600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1395100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1183400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3664,183 +3769,192 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>40</v>
+      <c r="AA47" s="3">
+        <v>0</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>585600</v>
+      </c>
+      <c r="E48" s="3">
         <v>578400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>534400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>548000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>560400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>573400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>576300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>564900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>562200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>574500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>548200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>534400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>534700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>543900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>544800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>533000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>522200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>432800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>421300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>411000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>389500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>383000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>374500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>369300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>355200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>302900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4817400</v>
+      </c>
+      <c r="E49" s="3">
         <v>4842900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4591600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4688000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4736300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4793300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4860200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4918800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5036100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5105700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4592800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4604400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4629600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4401600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4407000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4492500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4522300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4571600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4486200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4527100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4655000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4619300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3493100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3467000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3436000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2368400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,91 +4122,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E52" s="3">
         <v>95800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>172700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>110600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>82400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>145500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>51800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>81700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>90400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>58000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>43800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>41000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>37400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>52400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>52000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>50900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>50300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>46400</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>46100</v>
       </c>
       <c r="AA52" s="3">
         <v>46100</v>
       </c>
       <c r="AB52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="AC52" s="3">
         <v>36500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4294,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6917900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6928100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6758100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6731800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6873300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6871700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7040000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7066400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7028000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7152600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6613300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6765100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6701600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6309800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6257200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6314400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6268100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6278000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6200700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6175300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6300600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6181500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5680700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5290000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5232400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3891200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,91 +4446,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>136200</v>
+      </c>
+      <c r="E57" s="3">
         <v>126800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>121500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>121400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>117500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>118200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>104100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>106600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>101300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>102500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>96900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>107100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>104300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>102900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>108100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>103500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>106700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>97600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>94800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>84700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>92000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>85400</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>82000</v>
       </c>
       <c r="AA57" s="3">
         <v>82000</v>
       </c>
       <c r="AB57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="AC57" s="3">
         <v>69400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4408,10 +4542,10 @@
         <v>87500</v>
       </c>
       <c r="E58" s="3">
+        <v>87500</v>
+      </c>
+      <c r="F58" s="3">
         <v>114400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>110000</v>
       </c>
       <c r="G58" s="3">
         <v>110000</v>
@@ -4420,28 +4554,28 @@
         <v>110000</v>
       </c>
       <c r="I58" s="3">
+        <v>110000</v>
+      </c>
+      <c r="J58" s="3">
         <v>101300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>92500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>83800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>91800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>83000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>53600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>50000</v>
       </c>
       <c r="Q58" s="3">
         <v>50000</v>
@@ -4450,372 +4584,387 @@
         <v>50000</v>
       </c>
       <c r="S58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="T58" s="3">
         <v>86600</v>
       </c>
       <c r="U58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="V58" s="3">
         <v>77300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>86900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>77500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>86600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>77300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>112000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>131100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>183100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E59" s="3">
         <v>367200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>375100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>379000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>428700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>451900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>356800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>327800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>323000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>337000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>286600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>266500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>244300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>410100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>379700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>335800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>330800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>389100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>374400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>354700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>389600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>305200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>212000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>182000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>179200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>175200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>575700</v>
+      </c>
+      <c r="E60" s="3">
         <v>581500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>610900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>610400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>656200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>680100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>562200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>526800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>508100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>540000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>475200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>456600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>402300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>563100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>530400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>493900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>520900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>582500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>549300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>536400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>551800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>483900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>374600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>376100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>392400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>427600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1549500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1624000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1593500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1606000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1740800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1740100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1948700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2215700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2295400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2377900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2035800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2328800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2340900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1858900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1949100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2081400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2072900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2072200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2075800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2145500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2154200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2162900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2172800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1887700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1957800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>850300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>682500</v>
+      </c>
+      <c r="E62" s="3">
         <v>700600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>658500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>662700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>680800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>696800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>871200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>857800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>848700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>898200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>866000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>882300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>885300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>908500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>924800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1074300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1104300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1083400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1068500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1059400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1034100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1104200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>660800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>667700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>663400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>474000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5218,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2807700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2906100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2862900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2879100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3077800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3117000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3382100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3652200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3816100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3377100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3667700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3628500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3330500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3404200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3649600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3698200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3738000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3693700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3741300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3740100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3751000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3208300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2931500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3013500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1751900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5680,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3878100</v>
+      </c>
+      <c r="E72" s="3">
         <v>3817300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3754700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3668700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3579100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3518000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3405800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3222500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3155200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3096200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3035900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2935200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2939500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2824900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2732400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2519200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2451500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2427600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2352600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2311700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2328700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2285900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2343900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2282200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2219500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2194600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6024,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4110300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4022000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3895200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3852700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3795500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3754700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3657900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3466100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3375800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3336500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3236200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3097400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3073000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2979300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2853000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2664800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2569900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2540000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2507100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2434000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2560500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2430500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2472500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2358500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2218900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2139300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44829</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44647</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44374</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44283</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43737</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43282</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43191</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43009</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42918</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42827</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E81" s="3">
         <v>78600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>101900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>105500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>77100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>128100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>199200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>83200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>76100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>116600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>131200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>108300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>228900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>83400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>90600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>56500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>56200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-42700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>77000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>78000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>40200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>61100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,91 +6407,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E83" s="3">
         <v>59600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>56300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>56700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>57900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>58700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>58800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>60400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>59400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>56900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>57300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>55800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>54100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>52700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>52000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>51900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>52600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>48900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>36900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>36500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>33000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>30100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E89" s="3">
         <v>98200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>142400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>39600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>62000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>201500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>185200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>154200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>110600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>195500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>107300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>145300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>147700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>131700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>96300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>63800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>135100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>121100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>94500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>86600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>101300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>121800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>106100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>90700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>108300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-23900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-31800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>199500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-519000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-284400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-23500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-118100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-774500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-34400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-41900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-982100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,13 +7417,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15900</v>
+        <v>-16000</v>
       </c>
       <c r="E96" s="3">
         <v>-15900</v>
@@ -7214,7 +7448,7 @@
         <v>-15900</v>
       </c>
       <c r="L96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="M96" s="3">
         <v>-15800</v>
@@ -7229,7 +7463,7 @@
         <v>-15800</v>
       </c>
       <c r="Q96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="R96" s="3">
         <v>-15700</v>
@@ -7238,19 +7472,19 @@
         <v>-15700</v>
       </c>
       <c r="T96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="U96" s="3">
         <v>-15600</v>
       </c>
       <c r="V96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="W96" s="3">
         <v>-15500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-15300</v>
       </c>
       <c r="Y96" s="3">
         <v>-15300</v>
@@ -7262,13 +7496,16 @@
         <v>-15300</v>
       </c>
       <c r="AB96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="AC96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,253 +7759,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-93600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-153800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-21000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-215400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-259700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-109200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-131500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>338900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-296200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>405300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-108300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-142900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-43300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-124400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-97300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-69700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-32700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-14100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>237700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-103600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1021300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-20800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E101" s="3">
         <v>14400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-9200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-16300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>16200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>26500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>15500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-26400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-105200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>89100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-158500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-36100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>119400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>37200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-51200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-206100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>147100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>105400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-46400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>32700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-85900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>10000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-32600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>45300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-684000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>341400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-12900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>145300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>44300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,382 +665,394 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44829</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44647</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44374</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44283</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43737</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43282</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43191</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43009</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42918</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42827</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>743300</v>
+      </c>
+      <c r="E8" s="3">
         <v>710900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>758000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>686800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>704500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>641700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>761900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>713500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>633900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>711200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>628300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>567000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>630600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>681000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>648300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>652500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>613600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>641600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>609700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>609900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>587200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>595100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>534700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>528600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>487900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>513900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>335400</v>
+      </c>
+      <c r="E9" s="3">
         <v>319600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>335900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>312800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>315700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>295500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>342200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>312500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>315900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>289400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>327600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>299000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>288700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>297000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>282700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>272600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>289600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>275800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>267100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>265100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>256000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>264400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>239500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>238300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>232300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>240900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>407900</v>
+      </c>
+      <c r="E10" s="3">
         <v>391300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>422100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>374000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>388800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>346200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>419700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>387800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>397600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>344500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>383600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>329300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>278300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>333600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>398300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>375700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>352200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>324000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>365800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>342600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>344800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>331200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>330700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>295200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>290300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>255600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>273000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,94 +1083,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E12" s="3">
         <v>41500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>42800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>36900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>36400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>35800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>31800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>33300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>33800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>31100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>28000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>27800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>26400</v>
-      </c>
-      <c r="W12" s="3">
-        <v>26000</v>
       </c>
       <c r="X12" s="3">
         <v>26000</v>
       </c>
       <c r="Y12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="Z12" s="3">
         <v>25500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>21200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>20300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>17800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>15700</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,94 +1259,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-5900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-90200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>21000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>47800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>17400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>19200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>55400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2900</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>27400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>46400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1415,8 +1437,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>599700</v>
+      </c>
+      <c r="E17" s="3">
         <v>596000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>629900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>554300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>569400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>538200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>606800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>459300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>597800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>530500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>616100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>496200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>528200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>473600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>562800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>530700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>545000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>538300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>522300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>527600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>576400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>504200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>424300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>418400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>432600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>446900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E18" s="3">
         <v>114900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>128100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>132500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>135100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>103500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>155100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>241000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>115700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>103400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>132100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>157000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>118200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>117600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>107500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>75300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>119300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>82100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>86800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>90900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>110400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>110200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>55300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>67000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1648,25 +1680,26 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1678,10 +1711,10 @@
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
@@ -1690,40 +1723,40 @@
         <v>200</v>
       </c>
       <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>500</v>
       </c>
       <c r="S20" s="3">
         <v>500</v>
       </c>
       <c r="T20" s="3">
+        <v>500</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>200</v>
       </c>
       <c r="AB20" s="3">
         <v>200</v>
@@ -1734,352 +1767,367 @@
       <c r="AD20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E21" s="3">
         <v>175600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>188100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>188900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>192100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>161700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>214000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>176300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>163500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>152600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>189200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>96300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>213400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>172700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>170800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>161800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>129000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>172900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>134400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>85600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>139800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>140000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>147500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>146800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>88400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>97300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E22" s="3">
         <v>18300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>12000</v>
       </c>
       <c r="J22" s="3">
         <v>12000</v>
       </c>
       <c r="K22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L22" s="3">
         <v>16200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>22700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>27200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>26600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>25900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>23700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>21300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>19900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>17700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>16400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E23" s="3">
         <v>97500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>109400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>119200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>124000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>93300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>143300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>229200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>99700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>87300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>76600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>115700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>142200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>101300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>98500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>87200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>52900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>96200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>55300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>61200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>67400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>89400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>90500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>37700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>50800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E24" s="3">
         <v>20200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>29700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-130400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>12100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-10100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2164,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E26" s="3">
         <v>77300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>78100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>101900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>105600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>77400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>127500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>199500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>74900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>76600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>116600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>131200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>107800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>228900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>83300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>41900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>87500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>56500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>54900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>65100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>79400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>78400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>40300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>60900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E27" s="3">
         <v>77300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>78100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>101900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>105600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>77400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>127500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>199500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>83300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>74900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>76600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>116600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>131200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>107800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>228900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>83300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>41900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>87500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>56500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>54900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>65100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>79400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>78400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>40300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>60900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2422,44 +2479,47 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3">
         <v>-500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>500</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2467,49 +2527,52 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>500</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>3100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>1300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-107700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-400</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-200</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>200</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2594,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2680,25 +2746,28 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -2710,10 +2779,10 @@
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
@@ -2722,40 +2791,40 @@
         <v>-200</v>
       </c>
       <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-500</v>
       </c>
       <c r="S32" s="3">
         <v>-500</v>
       </c>
       <c r="T32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-200</v>
       </c>
       <c r="AB32" s="3">
         <v>-200</v>
@@ -2766,94 +2835,100 @@
       <c r="AD32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E33" s="3">
         <v>76700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>78600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>101900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>105500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>77100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>128100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>199200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>76100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>116600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>131200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>108300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>228900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>83400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>40900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>90600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>56500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>56200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-42700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>77000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>78000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>40200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>61100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2938,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E35" s="3">
         <v>76700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>78600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>101900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>105500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>77100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>128100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>199200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>76100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>116600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>131200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>108300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>228900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>83400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>40900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>90600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>56500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>56200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-42700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>77000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>78000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>40200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>61100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44829</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44647</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44374</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44283</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43737</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43282</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43191</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43009</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42918</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42827</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3147,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3179,94 +3264,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>250800</v>
+      </c>
+      <c r="E41" s="3">
         <v>264100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>292000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>397300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>308100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>466700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>445100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>481200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>361800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>324600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>375900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>347500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>553500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>406500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>301100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>257500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>303900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>271200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>357200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>356300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>346300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>378900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>333600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1017600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>676200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>689100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>543800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3351,352 +3440,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>429300</v>
+      </c>
+      <c r="E43" s="3">
         <v>410000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>408800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>391300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>415300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>407200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>383600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>399700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>414200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>401100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>395100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>390500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>374900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>441700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>418700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>396700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>382100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>375800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>366300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>374300</v>
-      </c>
-      <c r="W43" s="3">
-        <v>359100</v>
       </c>
       <c r="X43" s="3">
         <v>359100</v>
       </c>
       <c r="Y43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="Z43" s="3">
         <v>345900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>306500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>303700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>282900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>272000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>631600</v>
+      </c>
+      <c r="E44" s="3">
         <v>614100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>578500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>530100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>510500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>491400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>477600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>484300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>490300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>512300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>513200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>526100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>514800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>488900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>476600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>472600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>461300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>445600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>427800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>411100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>405400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>403700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>395700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>382400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>368500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>355300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>316200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>134100</v>
+      </c>
+      <c r="E45" s="3">
         <v>139800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>131600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>140800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>151400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>129000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>122800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>176600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>170900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>140800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>138300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>156500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>101400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>109700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>110000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>110800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>97800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>90100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>84900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>99100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>74400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>63500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>53600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>60300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>59200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>67800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>51400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1445800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1428100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1411000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1459400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1385300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1494200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1429100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1541800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1437200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1378800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1422400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1420600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1544600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1446800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1306300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1237600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1245100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1182600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1236200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1240800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1185300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1205200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1128800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1766800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1407600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1395100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1183400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3772,189 +3876,198 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>40</v>
+      <c r="AB47" s="3">
+        <v>0</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AD47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>587800</v>
+      </c>
+      <c r="E48" s="3">
         <v>585600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>578400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>534400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>548000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>560400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>573400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>576300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>564900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>562200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>574500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>548200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>534400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>534700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>543900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>544800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>533000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>522200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>432800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>421300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>411000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>389500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>383000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>374500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>369300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>355200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>302900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4774100</v>
+      </c>
+      <c r="E49" s="3">
         <v>4817400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4842900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4591600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4688000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4736300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4793300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4860200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4918800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5036100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5105700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4592800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4604400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4629600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4401600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4407000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4492500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4522300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4571600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4486200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4527100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4655000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4619300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3493100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3467000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>3436000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2368400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E52" s="3">
         <v>86900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>95800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>172700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>110600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>82400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>61600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>145500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>50900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>51800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>81700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>90400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>58000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>67800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>43800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>41000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>37400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>52400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>52000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>50900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>50300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>46400</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>46100</v>
       </c>
       <c r="AB52" s="3">
         <v>46100</v>
       </c>
       <c r="AC52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="AD52" s="3">
         <v>36500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6895700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6917900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6928100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6758100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6731800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6873300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6871700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7040000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7066400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7028000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7152600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6613300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6765100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6701600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6309800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6257200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6314400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6268100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6278000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6200700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6175300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6300600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6181500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5680700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5290000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5232400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3891200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,94 +4576,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>142100</v>
+      </c>
+      <c r="E57" s="3">
         <v>136200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>126800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>121500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>121400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>117500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>118200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>104100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>106600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>101300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>102500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>96900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>107100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>104300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>102900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>108100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>103500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>106700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>97600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>94800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>84700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>92000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>85400</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>82000</v>
       </c>
       <c r="AB57" s="3">
         <v>82000</v>
       </c>
       <c r="AC57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="AD57" s="3">
         <v>69400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4545,10 +4678,10 @@
         <v>87500</v>
       </c>
       <c r="F58" s="3">
+        <v>87500</v>
+      </c>
+      <c r="G58" s="3">
         <v>114400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>110000</v>
       </c>
       <c r="H58" s="3">
         <v>110000</v>
@@ -4557,28 +4690,28 @@
         <v>110000</v>
       </c>
       <c r="J58" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K58" s="3">
         <v>101300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>92500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>83800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>100500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>91800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>83000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>53600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>50000</v>
       </c>
       <c r="R58" s="3">
         <v>50000</v>
@@ -4587,384 +4720,399 @@
         <v>50000</v>
       </c>
       <c r="T58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="U58" s="3">
         <v>86600</v>
       </c>
       <c r="V58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="W58" s="3">
         <v>77300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>86900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>77500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>86600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>77300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>112000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>131100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>183100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>325900</v>
+      </c>
+      <c r="E59" s="3">
         <v>352000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>367200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>375100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>379000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>428700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>451900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>356800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>327800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>323000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>337000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>286600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>266500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>244300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>410100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>379700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>335800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>330800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>389100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>374400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>354700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>389600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>305200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>212000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>182000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>179200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>175200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>555400</v>
+      </c>
+      <c r="E60" s="3">
         <v>575700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>581500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>610900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>610400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>656200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>680100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>562200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>526800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>508100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>540000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>475200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>456600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>402300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>563100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>530400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>493900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>520900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>582500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>549300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>536400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>551800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>483900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>374600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>376100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>392400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>427600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1470700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1549500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1624000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1593500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1606000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1740800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1740100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1948700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2215700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2295400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2377900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2035800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2328800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2340900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1858900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1949100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2081400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2072900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2072200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2075800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2145500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2154200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2162900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2172800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1887700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1957800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>850300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>654500</v>
+      </c>
+      <c r="E62" s="3">
         <v>682500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>658500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>662700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>680800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>696800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>871200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>857800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>848700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>898200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>866000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>882300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>885300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>908500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>924800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1074300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1104300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1083400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1068500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1059400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1034100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1104200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>660800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>667700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>663400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>474000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5135,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2680600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2807700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2906100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2862900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2879100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3077800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3117000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3382100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3652200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3816100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3377100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3667700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3628500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3330500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3404200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3649600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3698200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3738000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3693700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3741300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3740100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3751000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3208300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2931500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3013500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1751900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3973400</v>
+      </c>
+      <c r="E72" s="3">
         <v>3878100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3817300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3754700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3668700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3579100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3518000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3405800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3222500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3155200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3096200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3035900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2935200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2939500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2824900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2732400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2519200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2451500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2427600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2352600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2311700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2328700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2285900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2343900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2282200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2219500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2194600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4215100</v>
+      </c>
+      <c r="E76" s="3">
         <v>4110300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4022000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3895200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3852700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3795500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3754700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3657900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3466100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3375800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3336500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3236200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3097400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3073000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2979300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2853000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2664800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2569900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2540000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2507100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2434000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2560500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2430500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2472500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2358500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2218900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2139300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44829</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44647</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44374</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44283</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43737</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43282</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43191</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43009</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42918</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42827</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E81" s="3">
         <v>76700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>78600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>101900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>105500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>77100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>128100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>199200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>76100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>116600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>131200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>108300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>228900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>83400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>40900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>90600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>56500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>56200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-42700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>77000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>78000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>40200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>61100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,94 +6605,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E83" s="3">
         <v>59800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>59600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>56300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>56700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>57900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>58700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>58800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>59400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>56900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>57300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>55800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>54100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>52000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>51900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>52600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>48900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>36900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>36500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>33000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>30100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E89" s="3">
         <v>84100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>98200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>142400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>39600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>62000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>201500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>185200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>154200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>110600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>195500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>107300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>145300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>147700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>131700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>96300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>63800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>135100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>121100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>94500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>86600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>101300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>121800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>106100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>90700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>108300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-23900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-31800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>199500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-519000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-284400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-23500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-118100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-774500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-34400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-41900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-982100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-16800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,8 +7650,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7427,7 +7660,7 @@
         <v>-16000</v>
       </c>
       <c r="E96" s="3">
-        <v>-15900</v>
+        <v>-16000</v>
       </c>
       <c r="F96" s="3">
         <v>-15900</v>
@@ -7451,7 +7684,7 @@
         <v>-15900</v>
       </c>
       <c r="M96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="N96" s="3">
         <v>-15800</v>
@@ -7466,7 +7699,7 @@
         <v>-15800</v>
       </c>
       <c r="R96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="S96" s="3">
         <v>-15700</v>
@@ -7475,19 +7708,19 @@
         <v>-15700</v>
       </c>
       <c r="U96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="V96" s="3">
         <v>-15600</v>
       </c>
       <c r="W96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="X96" s="3">
         <v>-15500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-15300</v>
       </c>
       <c r="Z96" s="3">
         <v>-15300</v>
@@ -7499,13 +7732,16 @@
         <v>-15300</v>
       </c>
       <c r="AC96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="AD96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,262 +8004,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-93600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-153800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-21000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-215400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-259700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-109200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-131500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>338900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-296200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>405300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-108300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-142900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-43300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-124400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-97300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-69700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-32700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-14100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>237700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-103600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1021300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-20800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>14400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-9400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-16300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>16200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>26500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>15500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-26400</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-105200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>89100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-158500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>119400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-51200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-206100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>147100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>105400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>43500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-46400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>32700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-85900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-32600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>45300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-684000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>341400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-12900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>145300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>44300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>23000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TFX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,406 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44829</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44647</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44374</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44283</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43737</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43282</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43191</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43009</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42918</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42827</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>746400</v>
+      </c>
+      <c r="E8" s="3">
         <v>743300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>710900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>758000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>686800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>704500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>641700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>761900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>713500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>633900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>711200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>628300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>567000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>630600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>681000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>648300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>652500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>613600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>641600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>609700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>609900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>587200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>595100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>534700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>528600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>487900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>513900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>455600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>330100</v>
+      </c>
+      <c r="E9" s="3">
         <v>335400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>319600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>335900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>312800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>315700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>295500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>342200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>312500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>315900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>289400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>327600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>299000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>288700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>297000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>282700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>272600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>300300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>289600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>275800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>267100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>265100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>256000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>264400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>239500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>238300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>232300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>240900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>416300</v>
+      </c>
+      <c r="E10" s="3">
         <v>407900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>391300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>422100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>374000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>388800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>346200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>419700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>387800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>397600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>344500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>383600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>329300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>278300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>333600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>398300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>375700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>352200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>324000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>365800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>342600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>344800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>331200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>330700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>295200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>290300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>255600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>273000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,97 +1096,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E12" s="3">
         <v>39400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>41500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>42800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>36900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>36400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>35800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>33300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>29400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>31100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>28000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>27200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>27800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>26400</v>
-      </c>
-      <c r="X12" s="3">
-        <v>26000</v>
       </c>
       <c r="Y12" s="3">
         <v>26000</v>
       </c>
       <c r="Z12" s="3">
+        <v>26000</v>
+      </c>
+      <c r="AA12" s="3">
         <v>25500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>21200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>20300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>17800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>15700</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1262,97 +1278,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>17800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-5900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-90200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>21000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>47800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>17400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>19200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>55400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2900</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>27400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>46400</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1440,8 +1462,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>581100</v>
+      </c>
+      <c r="E17" s="3">
         <v>599700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>596000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>629900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>554300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>569400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>538200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>606800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>459300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>597800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>530500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>616100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>496200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>528200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>473600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>562800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>530700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>545000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>538300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>522300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>527600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>576400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>504200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>424300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>418400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>432600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>446900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>369200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>165300</v>
+      </c>
+      <c r="E18" s="3">
         <v>143600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>114900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>128100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>132500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>135100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>103500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>155100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>241000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>115700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>103400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>132100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>157000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>118200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>117600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>107500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>75300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>119300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>82100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>33500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>86800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>90900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>110400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>110200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>55300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>67000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>86400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1681,28 +1713,29 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1714,10 +1747,10 @@
         <v>200</v>
       </c>
       <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
@@ -1726,40 +1759,40 @@
         <v>200</v>
       </c>
       <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>500</v>
       </c>
       <c r="T20" s="3">
         <v>500</v>
       </c>
       <c r="U20" s="3">
+        <v>500</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>200</v>
       </c>
       <c r="AC20" s="3">
         <v>200</v>
@@ -1770,364 +1803,379 @@
       <c r="AE20" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>230400</v>
+      </c>
+      <c r="E21" s="3">
         <v>205200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>175600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>188100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>188900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>192100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>161700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>214000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>176300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>163500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>152600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>189200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>96300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>213400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>172700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>170800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>161800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>129000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>172900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>134400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>85600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>139800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>140000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>147500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>146800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>88400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>97300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>116400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E22" s="3">
         <v>17800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>12000</v>
       </c>
       <c r="K22" s="3">
         <v>12000</v>
       </c>
       <c r="L22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M22" s="3">
         <v>16200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>22700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>27200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>26600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>25900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>23700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>21300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>19900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>17700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>16400</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>149600</v>
+      </c>
+      <c r="E23" s="3">
         <v>127000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>97500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>109400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>119200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>124000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>93300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>143300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>229200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>99700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>87300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>76600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>115700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>142200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>101300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>98500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>87200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>52900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>96200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>55300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>61200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>67400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>89400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>90500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>37700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>50800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>73700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E24" s="3">
         <v>15500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-130400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>12100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-2700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-10100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2215,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E26" s="3">
         <v>111400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>77300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>78100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>101900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>105600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>77400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>127500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>199500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>74900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>76600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>116600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>131200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>228900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>83300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>41900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>87500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>56500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>54900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>65100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>79400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>78400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>40300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>60900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E27" s="3">
         <v>111400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>77300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>78100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>101900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>105600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>77400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>127500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>199500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>83300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>74900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>76600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>116600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>131200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>107800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>228900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>83300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>41900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>87500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>56500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>54900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>65100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>79400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>78400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>40300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>60900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>66200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2482,47 +2539,50 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>500</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2530,49 +2590,52 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>3100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>1300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-107700</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-400</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-200</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>200</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2660,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2749,28 +2815,31 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -2782,10 +2851,10 @@
         <v>-200</v>
       </c>
       <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
@@ -2794,40 +2863,40 @@
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-500</v>
       </c>
       <c r="T32" s="3">
         <v>-500</v>
       </c>
       <c r="U32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-200</v>
       </c>
       <c r="AC32" s="3">
         <v>-200</v>
@@ -2838,97 +2907,103 @@
       <c r="AE32" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E33" s="3">
         <v>111300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>76700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>78600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>101900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>105500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>77100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>128100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>199200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>83200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>76100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>116600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>131200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>108300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>228900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>83400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>40900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>90600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>56500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>56200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-42700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>77000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>78000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>40200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>61100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3016,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E35" s="3">
         <v>111300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>76700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>78600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>101900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>105500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>77100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>128100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>199200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>83200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>76100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>116600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>131200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>108300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>228900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>83400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>40900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>90600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>56500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>56200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-42700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>77000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>78000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>40200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>61100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45109</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44829</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44647</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44374</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44283</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43737</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43282</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43191</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43009</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42918</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42827</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3232,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3265,97 +3350,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>881500</v>
+      </c>
+      <c r="E41" s="3">
         <v>250800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>264100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>292000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>397300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>308100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>466700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>445100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>481200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>361800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>324600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>375900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>347500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>553500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>406500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>301100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>257500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>303900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>271200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>357200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>356300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>346300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>378900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>333600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1017600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>676200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>689100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>543800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>499500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3443,364 +3532,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>425200</v>
+      </c>
+      <c r="E43" s="3">
         <v>429300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>410000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>408800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>391300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>415300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>407200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>383600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>399700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>414200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>401100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>395100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>390500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>374900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>441700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>418700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>396700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>382100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>375800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>366300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>374300</v>
-      </c>
-      <c r="X43" s="3">
-        <v>359100</v>
       </c>
       <c r="Y43" s="3">
         <v>359100</v>
       </c>
       <c r="Z43" s="3">
+        <v>359100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>345900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>306500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>303700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>282900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>272000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>261800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>625100</v>
+      </c>
+      <c r="E44" s="3">
         <v>631600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>614100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>578500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>530100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>510500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>491400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>477600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>484300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>490300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>512300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>513200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>526100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>514800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>488900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>476600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>472600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>461300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>445600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>427800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>411100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>405400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>403700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>395700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>382400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>368500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>355300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>316200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>341800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E45" s="3">
         <v>134100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>139800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>131600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>140800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>151400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>129000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>122800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>176600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>170900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>140800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>138300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>156500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>101400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>109700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>110000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>110800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>97800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>90100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>84900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>99100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>74400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>63500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>53600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>60300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>59200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>67800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>51400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>60800</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>2097300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1445800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1428100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1411000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1459400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1385300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1494200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1429100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1541800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1437200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1378800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1422400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1420600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1544600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1446800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1306300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1237600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1245100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1182600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1236200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1240800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1185300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1205200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1128800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1766800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1407600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1395100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1183400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1163900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3879,195 +3983,204 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>40</v>
+      <c r="AC47" s="3">
+        <v>0</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AE47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>588100</v>
+      </c>
+      <c r="E48" s="3">
         <v>587800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>585600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>578400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>534400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>548000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>560400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>573400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>576300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>564900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>562200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>574500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>548200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>534400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>534700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>543900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>544800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>533000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>522200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>432800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>421300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>411000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>389500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>383000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>374500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>369300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>355200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>302900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>322000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4708800</v>
+      </c>
+      <c r="E49" s="3">
         <v>4774100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4817400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4842900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4591600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4688000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4736300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4793300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4860200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4918800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5036100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5105700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4592800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4604400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4629600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4401600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4407000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4492500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4522300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4571600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4486200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4527100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4655000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4619300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3493100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>3467000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>3436000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2368400</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2469700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4155,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4244,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E52" s="3">
         <v>88000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>86900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>95800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>172700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>110600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>82400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>75900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>145500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>50900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>49900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>51800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>81700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>90400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>58000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>67800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>43800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>41000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>37400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>52400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>52000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>50900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>50300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>46400</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>46100</v>
       </c>
       <c r="AC52" s="3">
         <v>46100</v>
       </c>
       <c r="AD52" s="3">
+        <v>46100</v>
+      </c>
+      <c r="AE52" s="3">
         <v>36500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>46000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4422,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7493600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6895700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6917900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6928100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6758100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6731800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6873300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6871700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7040000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7066400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7028000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7152600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6613300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6765100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6701600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6309800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6257200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6314400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6268100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6278000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6200700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6175300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6300600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6181500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5680700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5290000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5232400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3891200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>4001700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4544,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,97 +4706,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>130700</v>
+      </c>
+      <c r="E57" s="3">
         <v>142100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>136200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>126800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>121500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>121400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>117500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>118200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>104100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>106600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>101300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>102500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>96900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>107100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>104300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>102900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>108100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>103500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>106700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>97600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>94800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>84700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>92000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>85400</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>82000</v>
       </c>
       <c r="AC57" s="3">
         <v>82000</v>
       </c>
       <c r="AD57" s="3">
+        <v>82000</v>
+      </c>
+      <c r="AE57" s="3">
         <v>69400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4681,10 +4814,10 @@
         <v>87500</v>
       </c>
       <c r="G58" s="3">
+        <v>87500</v>
+      </c>
+      <c r="H58" s="3">
         <v>114400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>110000</v>
       </c>
       <c r="I58" s="3">
         <v>110000</v>
@@ -4693,28 +4826,28 @@
         <v>110000</v>
       </c>
       <c r="K58" s="3">
+        <v>110000</v>
+      </c>
+      <c r="L58" s="3">
         <v>101300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>92500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>83800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>91800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>83000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>53600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>50000</v>
       </c>
       <c r="S58" s="3">
         <v>50000</v>
@@ -4723,396 +4856,411 @@
         <v>50000</v>
       </c>
       <c r="U58" s="3">
-        <v>86600</v>
+        <v>50000</v>
       </c>
       <c r="V58" s="3">
         <v>86600</v>
       </c>
       <c r="W58" s="3">
+        <v>86600</v>
+      </c>
+      <c r="X58" s="3">
         <v>77300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>86900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>77500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>86600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>77300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>112000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>131100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>183100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>367200</v>
+      </c>
+      <c r="E59" s="3">
         <v>325900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>352000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>367200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>375100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>379000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>428700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>451900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>356800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>327800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>323000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>337000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>286600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>266500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>244300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>410100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>379700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>335800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>330800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>389100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>374400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>354700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>389600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>305200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>212000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>182000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>179200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>175200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>585400</v>
+      </c>
+      <c r="E60" s="3">
         <v>555400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>575700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>581500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>610900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>610400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>656200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>680100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>562200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>526800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>508100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>540000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>475200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>456600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>402300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>563100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>530400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>493900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>520900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>582500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>549300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>536400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>551800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>483900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>374600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>376100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>392400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>427600</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>452400</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1950100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1470700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1549500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1624000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1593500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1606000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1740800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1740100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1948700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2215700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2295400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2377900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2035800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2328800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2340900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1858900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1949100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2081400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2072900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2072200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2075800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2145500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2154200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2162900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2172800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1887700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1957800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>850300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>850000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>644000</v>
+      </c>
+      <c r="E62" s="3">
         <v>654500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>682500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>658500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>662700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>680800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>696800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>871200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>857800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>848700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>898200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>866000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>882300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>885300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>908500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>924800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1074300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1104300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1083400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1068500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1059400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1034100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1104200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>660800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>667700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>663400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>474000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>529400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5289,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5378,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3179600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2680600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2807700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2906100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2862900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2879100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3077800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3117000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3382100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3600300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3652200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3816100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3377100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3667700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3628500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3330500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3404200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3649600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3698200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3738000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3693700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3741300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3740100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3751000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3208300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2931500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3013500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1751900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1831700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5500,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5589,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5767,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5856,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4094600</v>
+      </c>
+      <c r="E72" s="3">
         <v>3973400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3878100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3817300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3754700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3668700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3579100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3518000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3405800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3222500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3155200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3096200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3035900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2935200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2939500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2824900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2732400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2519200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2451500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2427600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2352600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2311700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2328700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2285900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2343900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2282200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2219500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2194600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>2148500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6034,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6123,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6212,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4314000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4215100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4110300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4022000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3895200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3852700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3795500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3754700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3657900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3466100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3375800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3336500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3236200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3097400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3073000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2979300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2853000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2664800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2569900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2540000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2507100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2434000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2560500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2430500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2472500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2358500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2218900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2139300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2169900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6390,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45109</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44829</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44647</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44374</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44283</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43737</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43282</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43191</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43009</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42918</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42827</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E81" s="3">
         <v>111300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>76700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>78600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>101900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>105500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>77100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>128100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>199200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>83200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>76100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>116600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>131200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>108300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>228900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>83400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>40900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>90600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>56500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>56200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-42700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>77000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>78000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>40200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>61100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>66300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6606,97 +6803,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E83" s="3">
         <v>60500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>59800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>59600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>56300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>56700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>57900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>58700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>59400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>57300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>56900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>57300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>55800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>54100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>53500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>52000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>51900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>52600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>48900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>36900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>36500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>33000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>30100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>29800</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6873,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7051,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7140,97 +7353,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>201600</v>
+      </c>
+      <c r="E89" s="3">
         <v>86100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>98200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>142400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>39600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>62000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>201500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>185200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>154200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>110600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>195500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>107300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>145300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>147700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>131700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>96300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>63800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>135100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>121100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>94500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>86600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>101300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>121800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>106100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>90700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>108300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7262,97 +7481,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-16900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-23900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-12900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7440,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7529,97 +7755,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>199500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-519000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-284400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-26000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-23500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-118100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-17800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-19400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-774500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-34400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-41900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-982100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-16800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-21500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7651,8 +7883,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7663,7 +7896,7 @@
         <v>-16000</v>
       </c>
       <c r="F96" s="3">
-        <v>-15900</v>
+        <v>-16000</v>
       </c>
       <c r="G96" s="3">
         <v>-15900</v>
@@ -7687,7 +7920,7 @@
         <v>-15900</v>
       </c>
       <c r="N96" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="O96" s="3">
         <v>-15800</v>
@@ -7702,7 +7935,7 @@
         <v>-15800</v>
       </c>
       <c r="S96" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="T96" s="3">
         <v>-15700</v>
@@ -7711,19 +7944,19 @@
         <v>-15700</v>
       </c>
       <c r="V96" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="W96" s="3">
         <v>-15600</v>
       </c>
       <c r="X96" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-15400</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-15300</v>
       </c>
       <c r="AA96" s="3">
         <v>-15300</v>
@@ -7735,13 +7968,16 @@
         <v>-15300</v>
       </c>
       <c r="AD96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="AE96" s="3">
         <v>-15000</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-15000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7829,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,271 +8249,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-92400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-93600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-153800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-21000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-215400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-259700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-109200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-131500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>338900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-296200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>405300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-108300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-142900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-43300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-124400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-97300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-69700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-32700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-14100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>237700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-103600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1021300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-20800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-75700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>14400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-15000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-16300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>16200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>26500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>15500</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-26400</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>630700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-105200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>89100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-158500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>119400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>37200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-51200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-206100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>147100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>105400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>43500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-46400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>32700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-85900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>10000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-32600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>45300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-684000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>341400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-12900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>145300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>44300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>23000</v>
       </c>
     </row>
